--- a/Public-Dataset-RaceEthSex-2.xlsx
+++ b/Public-Dataset-RaceEthSex-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3355</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3407</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3355"/>
+  <dimension ref="A1:G3407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -85475,7 +85475,7 @@
         <v>5186</v>
       </c>
       <c r="G3343" s="0">
-        <v>0.738220640569395</v>
+        <v>0.738</v>
       </c>
     </row>
     <row outlineLevel="0" r="3344">
@@ -85502,13 +85502,13 @@
         <v>1283</v>
       </c>
       <c r="G3344" s="0">
-        <v>0.182633451957295</v>
+        <v>0.182</v>
       </c>
     </row>
     <row outlineLevel="0" r="3345">
       <c r="A3345" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3345" s="1">
@@ -85520,22 +85520,22 @@
         </is>
       </c>
       <c r="D3345" s="0">
-        <v>51862</v>
+        <v>4879</v>
       </c>
       <c r="E3345" s="0">
-        <v>0.085257694843144</v>
+        <v>8.02075302031738E-03</v>
       </c>
       <c r="F3345" s="0">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="G3345" s="0">
-        <v>3.38790035587189E-02</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="3346">
       <c r="A3346" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B3346" s="1">
@@ -85547,22 +85547,22 @@
         </is>
       </c>
       <c r="D3346" s="0">
-        <v>4879</v>
+        <v>761</v>
       </c>
       <c r="E3346" s="0">
-        <v>8.02075302031738E-03</v>
+        <v>1.25103362337805E-03</v>
       </c>
       <c r="F3346" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G3346" s="0">
-        <v>5.26690391459075E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="3347">
       <c r="A3347" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B3347" s="1">
@@ -85574,22 +85574,22 @@
         </is>
       </c>
       <c r="D3347" s="0">
-        <v>761</v>
+        <v>411</v>
       </c>
       <c r="E3347" s="0">
-        <v>1.25103362337805E-03</v>
+        <v>6.75656792652274E-04</v>
       </c>
       <c r="F3347" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3347" s="0">
-        <v>1.13879003558719E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3348">
       <c r="A3348" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B3348" s="1">
@@ -85601,16 +85601,16 @@
         </is>
       </c>
       <c r="D3348" s="0">
-        <v>411</v>
+        <v>51862</v>
       </c>
       <c r="E3348" s="0">
-        <v>6.75656792652274E-04</v>
+        <v>0.085257694843144</v>
       </c>
       <c r="F3348" s="0">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="G3348" s="0">
-        <v>5.69395017793594E-04</v>
+        <v>0.033</v>
       </c>
     </row>
     <row outlineLevel="0" r="3349">
@@ -85637,7 +85637,7 @@
         <v>269</v>
       </c>
       <c r="G3349" s="0">
-        <v>3.82918149466192E-02</v>
+        <v>0.038</v>
       </c>
     </row>
     <row outlineLevel="0" r="3350">
@@ -85664,7 +85664,7 @@
         <v>6199</v>
       </c>
       <c r="G3350" s="0">
-        <v>0.882419928825623</v>
+        <v>0.882</v>
       </c>
     </row>
     <row outlineLevel="0" r="3351">
@@ -85691,7 +85691,7 @@
         <v>222</v>
       </c>
       <c r="G3351" s="0">
-        <v>3.16014234875445E-02</v>
+        <v>0.031</v>
       </c>
     </row>
     <row outlineLevel="0" r="3352">
@@ -85718,7 +85718,7 @@
         <v>604</v>
       </c>
       <c r="G3352" s="0">
-        <v>8.59786476868327E-02</v>
+        <v>0.085</v>
       </c>
     </row>
     <row outlineLevel="0" r="3353">
@@ -85745,7 +85745,7 @@
         <v>3240</v>
       </c>
       <c r="G3353" s="0">
-        <v>0.461209964412811</v>
+        <v>0.461</v>
       </c>
     </row>
     <row outlineLevel="0" r="3354">
@@ -85772,7 +85772,7 @@
         <v>3779</v>
       </c>
       <c r="G3354" s="0">
-        <v>0.537935943060498</v>
+        <v>0.537</v>
       </c>
     </row>
     <row outlineLevel="0" r="3355">
@@ -85799,7 +85799,1411 @@
         <v>6</v>
       </c>
       <c r="G3355" s="0">
-        <v>8.54092526690391E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3356">
+      <c r="A3356" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3356" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3356" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3356" s="0">
+        <v>361236</v>
+      </c>
+      <c r="E3356" s="0">
+        <v>0.59001388321764</v>
+      </c>
+      <c r="F3356" s="0">
+        <v>5285</v>
+      </c>
+      <c r="G3356" s="0">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3357">
+      <c r="A3357" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3357" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3357" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3357" s="0">
+        <v>77671</v>
+      </c>
+      <c r="E3357" s="0">
+        <v>0.126861576153532</v>
+      </c>
+      <c r="F3357" s="0">
+        <v>1303</v>
+      </c>
+      <c r="G3357" s="0">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3358">
+      <c r="A3358" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3358" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3358" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3358" s="0">
+        <v>4908</v>
+      </c>
+      <c r="E3358" s="0">
+        <v>8.01633319722336E-03</v>
+      </c>
+      <c r="F3358" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3358" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3359">
+      <c r="A3359" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3359" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3359" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3359" s="0">
+        <v>764</v>
+      </c>
+      <c r="E3359" s="0">
+        <v>1.24785626786443E-03</v>
+      </c>
+      <c r="F3359" s="0">
+        <v>8</v>
+      </c>
+      <c r="G3359" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3360">
+      <c r="A3360" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3360" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3360" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3360" s="0">
+        <v>412</v>
+      </c>
+      <c r="E3360" s="0">
+        <v>6.72927725602287E-04</v>
+      </c>
+      <c r="F3360" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3360" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3361">
+      <c r="A3361" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3361" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3361" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3361" s="0">
+        <v>52072</v>
+      </c>
+      <c r="E3361" s="0">
+        <v>8.50502245814618E-02</v>
+      </c>
+      <c r="F3361" s="0">
+        <v>242</v>
+      </c>
+      <c r="G3361" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3362">
+      <c r="A3362" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3362" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3362" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3362" s="0">
+        <v>115187</v>
+      </c>
+      <c r="E3362" s="0">
+        <v>0.188137198856676</v>
+      </c>
+      <c r="F3362" s="0">
+        <v>289</v>
+      </c>
+      <c r="G3362" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3363">
+      <c r="A3363" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3363" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3363" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3363" s="0">
+        <v>369793</v>
+      </c>
+      <c r="E3363" s="0">
+        <v>0.603990200081666</v>
+      </c>
+      <c r="F3363" s="0">
+        <v>6310</v>
+      </c>
+      <c r="G3363" s="0">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3364">
+      <c r="A3364" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3364" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3364" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3364" s="0">
+        <v>40623</v>
+      </c>
+      <c r="E3364" s="0">
+        <v>0.066350347080441</v>
+      </c>
+      <c r="F3364" s="0">
+        <v>226</v>
+      </c>
+      <c r="G3364" s="0">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3365">
+      <c r="A3365" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3365" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3365" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3365" s="0">
+        <v>201834</v>
+      </c>
+      <c r="E3365" s="0">
+        <v>0.329659452837893</v>
+      </c>
+      <c r="F3365" s="0">
+        <v>632</v>
+      </c>
+      <c r="G3365" s="0">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3366">
+      <c r="A3366" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3366" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3366" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3366" s="0">
+        <v>324723</v>
+      </c>
+      <c r="E3366" s="0">
+        <v>0.530376480195998</v>
+      </c>
+      <c r="F3366" s="0">
+        <v>3303</v>
+      </c>
+      <c r="G3366" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3367">
+      <c r="A3367" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3367" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3367" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3367" s="0">
+        <v>282500</v>
+      </c>
+      <c r="E3367" s="0">
+        <v>0.46141282155982</v>
+      </c>
+      <c r="F3367" s="0">
+        <v>3859</v>
+      </c>
+      <c r="G3367" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3368">
+      <c r="A3368" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3368" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C3368" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3368" s="0">
+        <v>5027</v>
+      </c>
+      <c r="E3368" s="0">
+        <v>8.2106982441813E-03</v>
+      </c>
+      <c r="F3368" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3368" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3369">
+      <c r="A3369" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3369" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3369" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3369" s="0">
+        <v>365612</v>
+      </c>
+      <c r="E3369" s="0">
+        <v>0.591941377708051</v>
+      </c>
+      <c r="F3369" s="0">
+        <v>5358</v>
+      </c>
+      <c r="G3369" s="0">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3370">
+      <c r="A3370" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3370" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3370" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3370" s="0">
+        <v>78347</v>
+      </c>
+      <c r="E3370" s="0">
+        <v>0.12684712514713</v>
+      </c>
+      <c r="F3370" s="0">
+        <v>1311</v>
+      </c>
+      <c r="G3370" s="0">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3371">
+      <c r="A3371" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3371" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3371" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3371" s="0">
+        <v>4946</v>
+      </c>
+      <c r="E3371" s="0">
+        <v>8.00778435648726E-03</v>
+      </c>
+      <c r="F3371" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3371" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3372">
+      <c r="A3372" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3372" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3372" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3372" s="0">
+        <v>771</v>
+      </c>
+      <c r="E3372" s="0">
+        <v>1.24828179111437E-03</v>
+      </c>
+      <c r="F3372" s="0">
+        <v>8</v>
+      </c>
+      <c r="G3372" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3373">
+      <c r="A3373" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3373" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3373" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3373" s="0">
+        <v>416</v>
+      </c>
+      <c r="E3373" s="0">
+        <v>6.73521692741347E-04</v>
+      </c>
+      <c r="F3373" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3373" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3374">
+      <c r="A3374" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3374" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3374" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3374" s="0">
+        <v>52365</v>
+      </c>
+      <c r="E3374" s="0">
+        <v>8.47811621163476E-02</v>
+      </c>
+      <c r="F3374" s="0">
+        <v>250</v>
+      </c>
+      <c r="G3374" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3375">
+      <c r="A3375" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3375" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3375" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3375" s="0">
+        <v>115192</v>
+      </c>
+      <c r="E3375" s="0">
+        <v>0.186500747188128</v>
+      </c>
+      <c r="F3375" s="0">
+        <v>299</v>
+      </c>
+      <c r="G3375" s="0">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3376">
+      <c r="A3376" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3376" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3376" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3376" s="0">
+        <v>375092</v>
+      </c>
+      <c r="E3376" s="0">
+        <v>0.607289900898407</v>
+      </c>
+      <c r="F3376" s="0">
+        <v>6401</v>
+      </c>
+      <c r="G3376" s="0">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3377">
+      <c r="A3377" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3377" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3377" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3377" s="0">
+        <v>40812</v>
+      </c>
+      <c r="E3377" s="0">
+        <v>6.60763637599996E-02</v>
+      </c>
+      <c r="F3377" s="0">
+        <v>228</v>
+      </c>
+      <c r="G3377" s="0">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3378">
+      <c r="A3378" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3378" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3378" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3378" s="0">
+        <v>201745</v>
+      </c>
+      <c r="E3378" s="0">
+        <v>0.326633735341594</v>
+      </c>
+      <c r="F3378" s="0">
+        <v>638</v>
+      </c>
+      <c r="G3378" s="0">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3379">
+      <c r="A3379" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3379" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3379" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3379" s="0">
+        <v>327543</v>
+      </c>
+      <c r="E3379" s="0">
+        <v>0.530306047609565</v>
+      </c>
+      <c r="F3379" s="0">
+        <v>3352</v>
+      </c>
+      <c r="G3379" s="0">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3380">
+      <c r="A3380" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3380" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3380" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3380" s="0">
+        <v>285002</v>
+      </c>
+      <c r="E3380" s="0">
+        <v>0.461430359314109</v>
+      </c>
+      <c r="F3380" s="0">
+        <v>3910</v>
+      </c>
+      <c r="G3380" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3381">
+      <c r="A3381" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3381" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C3381" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3381" s="0">
+        <v>5104</v>
+      </c>
+      <c r="E3381" s="0">
+        <v>8.26359307632652E-03</v>
+      </c>
+      <c r="F3381" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3382">
+      <c r="A3382" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3382" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3382" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3382" s="0">
+        <v>370618</v>
+      </c>
+      <c r="E3382" s="0">
+        <v>0.592764023882144</v>
+      </c>
+      <c r="F3382" s="0">
+        <v>5433</v>
+      </c>
+      <c r="G3382" s="0">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3383">
+      <c r="A3383" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3383" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3383" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3383" s="0">
+        <v>79331</v>
+      </c>
+      <c r="E3383" s="0">
+        <v>0.126881486540304</v>
+      </c>
+      <c r="F3383" s="0">
+        <v>1327</v>
+      </c>
+      <c r="G3383" s="0">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3384">
+      <c r="A3384" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3384" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3384" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3384" s="0">
+        <v>5039</v>
+      </c>
+      <c r="E3384" s="0">
+        <v>8.05934389679434E-03</v>
+      </c>
+      <c r="F3384" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3384" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3385">
+      <c r="A3385" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3385" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3385" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3385" s="0">
+        <v>784</v>
+      </c>
+      <c r="E3385" s="0">
+        <v>1.25392451182512E-03</v>
+      </c>
+      <c r="F3385" s="0">
+        <v>8</v>
+      </c>
+      <c r="G3385" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3386">
+      <c r="A3386" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3386" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3386" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3386" s="0">
+        <v>420</v>
+      </c>
+      <c r="E3386" s="0">
+        <v>6.71745274192026E-04</v>
+      </c>
+      <c r="F3386" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3386" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3387">
+      <c r="A3387" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3387" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3387" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3387" s="0">
+        <v>52857</v>
+      </c>
+      <c r="E3387" s="0">
+        <v>8.45391427570665E-02</v>
+      </c>
+      <c r="F3387" s="0">
+        <v>252</v>
+      </c>
+      <c r="G3387" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3388">
+      <c r="A3388" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3388" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3388" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3388" s="0">
+        <v>116188</v>
+      </c>
+      <c r="E3388" s="0">
+        <v>0.185830333137674</v>
+      </c>
+      <c r="F3388" s="0">
+        <v>320</v>
+      </c>
+      <c r="G3388" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3389">
+      <c r="A3389" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3389" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3389" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3389" s="0">
+        <v>380432</v>
+      </c>
+      <c r="E3389" s="0">
+        <v>0.608460471789098</v>
+      </c>
+      <c r="F3389" s="0">
+        <v>6500</v>
+      </c>
+      <c r="G3389" s="0">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3390">
+      <c r="A3390" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3390" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3390" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3390" s="0">
+        <v>41229</v>
+      </c>
+      <c r="E3390" s="0">
+        <v>6.59413950230073E-02</v>
+      </c>
+      <c r="F3390" s="0">
+        <v>228</v>
+      </c>
+      <c r="G3390" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3391">
+      <c r="A3391" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3391" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3391" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3391" s="0">
+        <v>203576</v>
+      </c>
+      <c r="E3391" s="0">
+        <v>0.325598133187895</v>
+      </c>
+      <c r="F3391" s="0">
+        <v>653</v>
+      </c>
+      <c r="G3391" s="0">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3392">
+      <c r="A3392" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3392" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3392" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3392" s="0">
+        <v>331657</v>
+      </c>
+      <c r="E3392" s="0">
+        <v>0.530450053339774</v>
+      </c>
+      <c r="F3392" s="0">
+        <v>3405</v>
+      </c>
+      <c r="G3392" s="0">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3393">
+      <c r="A3393" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3393" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3393" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3393" s="0">
+        <v>288420</v>
+      </c>
+      <c r="E3393" s="0">
+        <v>0.461297076148724</v>
+      </c>
+      <c r="F3393" s="0">
+        <v>3971</v>
+      </c>
+      <c r="G3393" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3394">
+      <c r="A3394" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3394" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C3394" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3394" s="0">
+        <v>5160</v>
+      </c>
+      <c r="E3394" s="0">
+        <v>8.25287051150204E-03</v>
+      </c>
+      <c r="F3394" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3394" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3395">
+      <c r="A3395" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3395" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3395" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3395" s="0">
+        <v>376212</v>
+      </c>
+      <c r="E3395" s="0">
+        <v>0.593172583750239</v>
+      </c>
+      <c r="F3395" s="0">
+        <v>5516</v>
+      </c>
+      <c r="G3395" s="0">
+        <v>0.736252002135611</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3396">
+      <c r="A3396" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3396" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3396" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3396" s="0">
+        <v>80309</v>
+      </c>
+      <c r="E3396" s="0">
+        <v>0.126623013163849</v>
+      </c>
+      <c r="F3396" s="0">
+        <v>1348</v>
+      </c>
+      <c r="G3396" s="0">
+        <v>0.179925253603844</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3397">
+      <c r="A3397" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3397" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3397" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3397" s="0">
+        <v>53513</v>
+      </c>
+      <c r="E3397" s="0">
+        <v>8.43738224039279E-02</v>
+      </c>
+      <c r="F3397" s="0">
+        <v>257</v>
+      </c>
+      <c r="G3397" s="0">
+        <v>3.43032568072611E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3398">
+      <c r="A3398" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3398" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3398" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3398" s="0">
+        <v>5153</v>
+      </c>
+      <c r="E3398" s="0">
+        <v>8.12472309247174E-03</v>
+      </c>
+      <c r="F3398" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3398" s="0">
+        <v>4.93860117458623E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3399">
+      <c r="A3399" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3399" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3399" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3399" s="0">
+        <v>800</v>
+      </c>
+      <c r="E3399" s="0">
+        <v>1.26135813583881E-03</v>
+      </c>
+      <c r="F3399" s="0">
+        <v>8</v>
+      </c>
+      <c r="G3399" s="0">
+        <v>1.06780565936999E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3400">
+      <c r="A3400" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3400" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3400" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3400" s="0">
+        <v>427</v>
+      </c>
+      <c r="E3400" s="0">
+        <v>6.73249905003965E-04</v>
+      </c>
+      <c r="F3400" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3400" s="0">
+        <v>5.33902829684997E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3401">
+      <c r="A3401" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3401" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3401" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3401" s="0">
+        <v>117823</v>
+      </c>
+      <c r="E3401" s="0">
+        <v>0.18577124954867</v>
+      </c>
+      <c r="F3401" s="0">
+        <v>322</v>
+      </c>
+      <c r="G3401" s="0">
+        <v>4.29791777896423E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3402">
+      <c r="A3402" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3402" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3402" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3402" s="0">
+        <v>385928</v>
+      </c>
+      <c r="E3402" s="0">
+        <v>0.608491778310001</v>
+      </c>
+      <c r="F3402" s="0">
+        <v>6602</v>
+      </c>
+      <c r="G3402" s="0">
+        <v>0.881206620395088</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3403">
+      <c r="A3403" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3403" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3403" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3403" s="0">
+        <v>41610</v>
+      </c>
+      <c r="E3403" s="0">
+        <v>6.56063900403162E-02</v>
+      </c>
+      <c r="F3403" s="0">
+        <v>231</v>
+      </c>
+      <c r="G3403" s="0">
+        <v>3.08328884143086E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3404">
+      <c r="A3404" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3404" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3404" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3404" s="0">
+        <v>206699</v>
+      </c>
+      <c r="E3404" s="0">
+        <v>0.325901831649683</v>
+      </c>
+      <c r="F3404" s="0">
+        <v>659</v>
+      </c>
+      <c r="G3404" s="0">
+        <v>8.79604911906033E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3405">
+      <c r="A3405" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3405" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3405" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3405" s="0">
+        <v>336526</v>
+      </c>
+      <c r="E3405" s="0">
+        <v>0.530599760026615</v>
+      </c>
+      <c r="F3405" s="0">
+        <v>3454</v>
+      </c>
+      <c r="G3405" s="0">
+        <v>0.461025093432995</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3406">
+      <c r="A3406" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3406" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3406" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3406" s="0">
+        <v>292488</v>
+      </c>
+      <c r="E3406" s="0">
+        <v>0.461165148044028</v>
+      </c>
+      <c r="F3406" s="0">
+        <v>4033</v>
+      </c>
+      <c r="G3406" s="0">
+        <v>0.538307528029899</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3407">
+      <c r="A3407" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3407" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C3407" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3407" s="0">
+        <v>5223</v>
+      </c>
+      <c r="E3407" s="0">
+        <v>8.23509192935764E-03</v>
+      </c>
+      <c r="F3407" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3407" s="0">
+        <v>6.67378537106247E-04</v>
       </c>
     </row>
   </sheetData>
@@ -86231,11 +87635,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2476</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2533</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2476</Url>
-      <Description>HJYU5V3E37X6-122305290-2476</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2533</Url>
+      <Description>HJYU5V3E37X6-122305290-2533</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -86258,17 +87662,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B90FB39E-E45E-4C12-A416-0A5B00EDE794}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1DEB7F-3C1B-4A01-884B-AF283F45DA18}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCB3F3D-DC4E-4370-AA53-54452932F04F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0379AE6-9965-4D25-97FB-ECCF1C2013D9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC4CE7F0-748B-4F30-8006-2FAA9D4C8C1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{968C885D-4013-4365-9452-53EA23B2C171}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB53ED2D-6FCB-4666-90D4-2C693DBD71C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85CA92C-9AD0-4B87-AA20-A5DF7FF2EA2F}"/>
 </file>
--- a/Public-Dataset-RaceEthSex-2.xlsx
+++ b/Public-Dataset-RaceEthSex-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3407</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3485</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3407"/>
+  <dimension ref="A1:G3485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -86879,7 +86879,7 @@
         <v>5516</v>
       </c>
       <c r="G3395" s="0">
-        <v>0.736252002135611</v>
+        <v>0.736</v>
       </c>
     </row>
     <row outlineLevel="0" r="3396">
@@ -86906,13 +86906,13 @@
         <v>1348</v>
       </c>
       <c r="G3396" s="0">
-        <v>0.179925253603844</v>
+        <v>0.179</v>
       </c>
     </row>
     <row outlineLevel="0" r="3397">
       <c r="A3397" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3397" s="1">
@@ -86924,22 +86924,22 @@
         </is>
       </c>
       <c r="D3397" s="0">
-        <v>53513</v>
+        <v>5153</v>
       </c>
       <c r="E3397" s="0">
-        <v>8.43738224039279E-02</v>
+        <v>8.12472309247174E-03</v>
       </c>
       <c r="F3397" s="0">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="G3397" s="0">
-        <v>3.43032568072611E-02</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="3398">
       <c r="A3398" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B3398" s="1">
@@ -86951,22 +86951,22 @@
         </is>
       </c>
       <c r="D3398" s="0">
-        <v>5153</v>
+        <v>800</v>
       </c>
       <c r="E3398" s="0">
-        <v>8.12472309247174E-03</v>
+        <v>1.26135813583881E-03</v>
       </c>
       <c r="F3398" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G3398" s="0">
-        <v>4.93860117458623E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="3399">
       <c r="A3399" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B3399" s="1">
@@ -86978,22 +86978,22 @@
         </is>
       </c>
       <c r="D3399" s="0">
-        <v>800</v>
+        <v>427</v>
       </c>
       <c r="E3399" s="0">
-        <v>1.26135813583881E-03</v>
+        <v>6.73249905003965E-04</v>
       </c>
       <c r="F3399" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3399" s="0">
-        <v>1.06780565936999E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3400">
       <c r="A3400" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B3400" s="1">
@@ -87005,16 +87005,16 @@
         </is>
       </c>
       <c r="D3400" s="0">
-        <v>427</v>
+        <v>53513</v>
       </c>
       <c r="E3400" s="0">
-        <v>6.73249905003965E-04</v>
+        <v>8.43738224039279E-02</v>
       </c>
       <c r="F3400" s="0">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="G3400" s="0">
-        <v>5.33902829684997E-04</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="3401">
@@ -87041,7 +87041,7 @@
         <v>322</v>
       </c>
       <c r="G3401" s="0">
-        <v>4.29791777896423E-02</v>
+        <v>0.042</v>
       </c>
     </row>
     <row outlineLevel="0" r="3402">
@@ -87068,7 +87068,7 @@
         <v>6602</v>
       </c>
       <c r="G3402" s="0">
-        <v>0.881206620395088</v>
+        <v>0.881</v>
       </c>
     </row>
     <row outlineLevel="0" r="3403">
@@ -87095,7 +87095,7 @@
         <v>231</v>
       </c>
       <c r="G3403" s="0">
-        <v>3.08328884143086E-02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="3404">
@@ -87122,7 +87122,7 @@
         <v>659</v>
       </c>
       <c r="G3404" s="0">
-        <v>8.79604911906033E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="3405">
@@ -87149,7 +87149,7 @@
         <v>3454</v>
       </c>
       <c r="G3405" s="0">
-        <v>0.461025093432995</v>
+        <v>0.461</v>
       </c>
     </row>
     <row outlineLevel="0" r="3406">
@@ -87176,7 +87176,7 @@
         <v>4033</v>
       </c>
       <c r="G3406" s="0">
-        <v>0.538307528029899</v>
+        <v>0.538</v>
       </c>
     </row>
     <row outlineLevel="0" r="3407">
@@ -87203,7 +87203,2113 @@
         <v>5</v>
       </c>
       <c r="G3407" s="0">
-        <v>6.67378537106247E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3408">
+      <c r="A3408" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3408" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3408" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3408" s="0">
+        <v>379927</v>
+      </c>
+      <c r="E3408" s="0">
+        <v>0.593074370205712</v>
+      </c>
+      <c r="F3408" s="0">
+        <v>5610</v>
+      </c>
+      <c r="G3408" s="0">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3409">
+      <c r="A3409" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3409" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3409" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3409" s="0">
+        <v>80851</v>
+      </c>
+      <c r="E3409" s="0">
+        <v>0.126210182233697</v>
+      </c>
+      <c r="F3409" s="0">
+        <v>1362</v>
+      </c>
+      <c r="G3409" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3410">
+      <c r="A3410" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3410" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3410" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3410" s="0">
+        <v>5206</v>
+      </c>
+      <c r="E3410" s="0">
+        <v>8.12668004982782E-03</v>
+      </c>
+      <c r="F3410" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3410" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3411">
+      <c r="A3411" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3411" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3411" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3411" s="0">
+        <v>809</v>
+      </c>
+      <c r="E3411" s="0">
+        <v>1.26286672307159E-03</v>
+      </c>
+      <c r="F3411" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3411" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3412">
+      <c r="A3412" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3412" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3412" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3412" s="0">
+        <v>432</v>
+      </c>
+      <c r="E3412" s="0">
+        <v>6.74361463988786E-04</v>
+      </c>
+      <c r="F3412" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3412" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3413">
+      <c r="A3413" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3413" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3413" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3413" s="0">
+        <v>53930</v>
+      </c>
+      <c r="E3413" s="0">
+        <v>8.41859114650815E-02</v>
+      </c>
+      <c r="F3413" s="0">
+        <v>259</v>
+      </c>
+      <c r="G3413" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3414">
+      <c r="A3414" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3414" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3414" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3414" s="0">
+        <v>119451</v>
+      </c>
+      <c r="E3414" s="0">
+        <v>0.186465627858621</v>
+      </c>
+      <c r="F3414" s="0">
+        <v>337</v>
+      </c>
+      <c r="G3414" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3415">
+      <c r="A3415" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3415" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3415" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3415" s="0">
+        <v>388828</v>
+      </c>
+      <c r="E3415" s="0">
+        <v>0.606969026203314</v>
+      </c>
+      <c r="F3415" s="0">
+        <v>6694</v>
+      </c>
+      <c r="G3415" s="0">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3416">
+      <c r="A3416" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3416" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3416" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3416" s="0">
+        <v>41848</v>
+      </c>
+      <c r="E3416" s="0">
+        <v>6.53256447800988E-02</v>
+      </c>
+      <c r="F3416" s="0">
+        <v>231</v>
+      </c>
+      <c r="G3416" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3417">
+      <c r="A3417" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3417" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3417" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3417" s="0">
+        <v>209930</v>
+      </c>
+      <c r="E3417" s="0">
+        <v>0.327705329016587</v>
+      </c>
+      <c r="F3417" s="0">
+        <v>693</v>
+      </c>
+      <c r="G3417" s="0">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3418">
+      <c r="A3418" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3418" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3418" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3418" s="0">
+        <v>339962</v>
+      </c>
+      <c r="E3418" s="0">
+        <v>0.530688129677212</v>
+      </c>
+      <c r="F3418" s="0">
+        <v>3511</v>
+      </c>
+      <c r="G3418" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3419">
+      <c r="A3419" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3419" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3419" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3419" s="0">
+        <v>295375</v>
+      </c>
+      <c r="E3419" s="0">
+        <v>0.461086845892795</v>
+      </c>
+      <c r="F3419" s="0">
+        <v>4102</v>
+      </c>
+      <c r="G3419" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3420">
+      <c r="A3420" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3420" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C3420" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3420" s="0">
+        <v>5269</v>
+      </c>
+      <c r="E3420" s="0">
+        <v>8.22502442999285E-03</v>
+      </c>
+      <c r="F3420" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3420" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3421">
+      <c r="A3421" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3421" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3421" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3421" s="0">
+        <v>383148</v>
+      </c>
+      <c r="E3421" s="0">
+        <v>0.592695490757213</v>
+      </c>
+      <c r="F3421" s="0">
+        <v>5677</v>
+      </c>
+      <c r="G3421" s="0">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3422">
+      <c r="A3422" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3422" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3422" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3422" s="0">
+        <v>81461</v>
+      </c>
+      <c r="E3422" s="0">
+        <v>0.126012839353392</v>
+      </c>
+      <c r="F3422" s="0">
+        <v>1370</v>
+      </c>
+      <c r="G3422" s="0">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3423">
+      <c r="A3423" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3423" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3423" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3423" s="0">
+        <v>5277</v>
+      </c>
+      <c r="E3423" s="0">
+        <v>8.16304431897285E-03</v>
+      </c>
+      <c r="F3423" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3423" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3424">
+      <c r="A3424" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3424" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3424" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3424" s="0">
+        <v>812</v>
+      </c>
+      <c r="E3424" s="0">
+        <v>1.25609095831077E-03</v>
+      </c>
+      <c r="F3424" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3424" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3425">
+      <c r="A3425" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3425" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3425" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3425" s="0">
+        <v>436</v>
+      </c>
+      <c r="E3425" s="0">
+        <v>6.7445278057081E-04</v>
+      </c>
+      <c r="F3425" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3425" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3426">
+      <c r="A3426" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3426" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3426" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3426" s="0">
+        <v>54289</v>
+      </c>
+      <c r="E3426" s="0">
+        <v>8.39801995513961E-02</v>
+      </c>
+      <c r="F3426" s="0">
+        <v>261</v>
+      </c>
+      <c r="G3426" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3427">
+      <c r="A3427" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3427" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3427" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3427" s="0">
+        <v>121027</v>
+      </c>
+      <c r="E3427" s="0">
+        <v>0.187217882280145</v>
+      </c>
+      <c r="F3427" s="0">
+        <v>346</v>
+      </c>
+      <c r="G3427" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3428">
+      <c r="A3428" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3428" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3428" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3428" s="0">
+        <v>391712</v>
+      </c>
+      <c r="E3428" s="0">
+        <v>0.605943228401268</v>
+      </c>
+      <c r="F3428" s="0">
+        <v>6753</v>
+      </c>
+      <c r="G3428" s="0">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3429">
+      <c r="A3429" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3429" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3429" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3429" s="0">
+        <v>42108</v>
+      </c>
+      <c r="E3429" s="0">
+        <v>6.51372882666873E-02</v>
+      </c>
+      <c r="F3429" s="0">
+        <v>232</v>
+      </c>
+      <c r="G3429" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3430">
+      <c r="A3430" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3430" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3430" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3430" s="0">
+        <v>212630</v>
+      </c>
+      <c r="E3430" s="0">
+        <v>0.328919483332044</v>
+      </c>
+      <c r="F3430" s="0">
+        <v>719</v>
+      </c>
+      <c r="G3430" s="0">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3431">
+      <c r="A3431" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3431" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3431" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3431" s="0">
+        <v>343106</v>
+      </c>
+      <c r="E3431" s="0">
+        <v>0.530754118648001</v>
+      </c>
+      <c r="F3431" s="0">
+        <v>3542</v>
+      </c>
+      <c r="G3431" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3432">
+      <c r="A3432" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3432" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3432" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3432" s="0">
+        <v>298017</v>
+      </c>
+      <c r="E3432" s="0">
+        <v>0.461005491530667</v>
+      </c>
+      <c r="F3432" s="0">
+        <v>4157</v>
+      </c>
+      <c r="G3432" s="0">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3433">
+      <c r="A3433" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3433" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C3433" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3433" s="0">
+        <v>5327</v>
+      </c>
+      <c r="E3433" s="0">
+        <v>8.24038982133189E-03</v>
+      </c>
+      <c r="F3433" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3433" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3434">
+      <c r="A3434" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3434" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3434" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3434" s="0">
+        <v>387419</v>
+      </c>
+      <c r="E3434" s="0">
+        <v>0.592502473737094</v>
+      </c>
+      <c r="F3434" s="0">
+        <v>5729</v>
+      </c>
+      <c r="G3434" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3435">
+      <c r="A3435" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3435" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3435" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3435" s="0">
+        <v>82149</v>
+      </c>
+      <c r="E3435" s="0">
+        <v>0.12563525721513</v>
+      </c>
+      <c r="F3435" s="0">
+        <v>1391</v>
+      </c>
+      <c r="G3435" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3436">
+      <c r="A3436" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3436" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3436" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3436" s="0">
+        <v>5345</v>
+      </c>
+      <c r="E3436" s="0">
+        <v>8.17442025849214E-03</v>
+      </c>
+      <c r="F3436" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3436" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3437">
+      <c r="A3437" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3437" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3437" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3437" s="0">
+        <v>823</v>
+      </c>
+      <c r="E3437" s="0">
+        <v>1.25866190322526E-03</v>
+      </c>
+      <c r="F3437" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3437" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3438">
+      <c r="A3438" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3438" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3438" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3438" s="0">
+        <v>441</v>
+      </c>
+      <c r="E3438" s="0">
+        <v>6.74447022262869E-04</v>
+      </c>
+      <c r="F3438" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3438" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3439">
+      <c r="A3439" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3439" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3439" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3439" s="0">
+        <v>54750</v>
+      </c>
+      <c r="E3439" s="0">
+        <v>8.37323684101861E-02</v>
+      </c>
+      <c r="F3439" s="0">
+        <v>264</v>
+      </c>
+      <c r="G3439" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3440">
+      <c r="A3440" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3440" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3440" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3440" s="0">
+        <v>122942</v>
+      </c>
+      <c r="E3440" s="0">
+        <v>0.188022371453609</v>
+      </c>
+      <c r="F3440" s="0">
+        <v>351</v>
+      </c>
+      <c r="G3440" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3441">
+      <c r="A3441" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3441" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3441" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3441" s="0">
+        <v>394951</v>
+      </c>
+      <c r="E3441" s="0">
+        <v>0.604021600657012</v>
+      </c>
+      <c r="F3441" s="0">
+        <v>6817</v>
+      </c>
+      <c r="G3441" s="0">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3442">
+      <c r="A3442" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3442" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3442" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3442" s="0">
+        <v>42355</v>
+      </c>
+      <c r="E3442" s="0">
+        <v>6.47759719454508E-02</v>
+      </c>
+      <c r="F3442" s="0">
+        <v>233</v>
+      </c>
+      <c r="G3442" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3443">
+      <c r="A3443" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3443" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3443" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3443" s="0">
+        <v>216563</v>
+      </c>
+      <c r="E3443" s="0">
+        <v>0.331202427397537</v>
+      </c>
+      <c r="F3443" s="0">
+        <v>735</v>
+      </c>
+      <c r="G3443" s="0">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3444">
+      <c r="A3444" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3444" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3444" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3444" s="0">
+        <v>347058</v>
+      </c>
+      <c r="E3444" s="0">
+        <v>0.530776042295934</v>
+      </c>
+      <c r="F3444" s="0">
+        <v>3581</v>
+      </c>
+      <c r="G3444" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3445">
+      <c r="A3445" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3445" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3445" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3445" s="0">
+        <v>301424</v>
+      </c>
+      <c r="E3445" s="0">
+        <v>0.460985304395835</v>
+      </c>
+      <c r="F3445" s="0">
+        <v>4198</v>
+      </c>
+      <c r="G3445" s="0">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3446">
+      <c r="A3446" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3446" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C3446" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3446" s="0">
+        <v>5387</v>
+      </c>
+      <c r="E3446" s="0">
+        <v>8.23865330823146E-03</v>
+      </c>
+      <c r="F3446" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3446" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3447">
+      <c r="A3447" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3447" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3447" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3447" s="0">
+        <v>389173</v>
+      </c>
+      <c r="E3447" s="0">
+        <v>0.591991737096058</v>
+      </c>
+      <c r="F3447" s="0">
+        <v>5778</v>
+      </c>
+      <c r="G3447" s="0">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3448">
+      <c r="A3448" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3448" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3448" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3448" s="0">
+        <v>82552</v>
+      </c>
+      <c r="E3448" s="0">
+        <v>0.125574235316309</v>
+      </c>
+      <c r="F3448" s="0">
+        <v>1405</v>
+      </c>
+      <c r="G3448" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3449">
+      <c r="A3449" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3449" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3449" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3449" s="0">
+        <v>5389</v>
+      </c>
+      <c r="E3449" s="0">
+        <v>8.19749435652179E-03</v>
+      </c>
+      <c r="F3449" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3449" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3450">
+      <c r="A3450" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3450" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3450" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3450" s="0">
+        <v>823</v>
+      </c>
+      <c r="E3450" s="0">
+        <v>1.25190904721051E-03</v>
+      </c>
+      <c r="F3450" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3450" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3451">
+      <c r="A3451" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3451" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3451" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3451" s="0">
+        <v>443</v>
+      </c>
+      <c r="E3451" s="0">
+        <v>6.73870848012461E-04</v>
+      </c>
+      <c r="F3451" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3451" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3452">
+      <c r="A3452" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3452" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3452" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3452" s="0">
+        <v>55010</v>
+      </c>
+      <c r="E3452" s="0">
+        <v>8.36786350996964E-02</v>
+      </c>
+      <c r="F3452" s="0">
+        <v>268</v>
+      </c>
+      <c r="G3452" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3453">
+      <c r="A3453" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3453" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3453" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3453" s="0">
+        <v>124006</v>
+      </c>
+      <c r="E3453" s="0">
+        <v>0.188632118236192</v>
+      </c>
+      <c r="F3453" s="0">
+        <v>364</v>
+      </c>
+      <c r="G3453" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3454">
+      <c r="A3454" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3454" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3454" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3454" s="0">
+        <v>396352</v>
+      </c>
+      <c r="E3454" s="0">
+        <v>0.602912095601434</v>
+      </c>
+      <c r="F3454" s="0">
+        <v>6869</v>
+      </c>
+      <c r="G3454" s="0">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3455">
+      <c r="A3455" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3455" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3455" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3455" s="0">
+        <v>42464</v>
+      </c>
+      <c r="E3455" s="0">
+        <v>6.45942476072261E-02</v>
+      </c>
+      <c r="F3455" s="0">
+        <v>236</v>
+      </c>
+      <c r="G3455" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3456">
+      <c r="A3456" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3456" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3456" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3456" s="0">
+        <v>218580</v>
+      </c>
+      <c r="E3456" s="0">
+        <v>0.33249365679134</v>
+      </c>
+      <c r="F3456" s="0">
+        <v>760</v>
+      </c>
+      <c r="G3456" s="0">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3457">
+      <c r="A3457" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3457" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3457" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3457" s="0">
+        <v>348977</v>
+      </c>
+      <c r="E3457" s="0">
+        <v>0.530847464846151</v>
+      </c>
+      <c r="F3457" s="0">
+        <v>3620</v>
+      </c>
+      <c r="G3457" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3458">
+      <c r="A3458" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3458" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3458" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3458" s="0">
+        <v>302990</v>
+      </c>
+      <c r="E3458" s="0">
+        <v>0.460894194671096</v>
+      </c>
+      <c r="F3458" s="0">
+        <v>4239</v>
+      </c>
+      <c r="G3458" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3459">
+      <c r="A3459" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3459" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C3459" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3459" s="0">
+        <v>5429</v>
+      </c>
+      <c r="E3459" s="0">
+        <v>8.25834048275316E-03</v>
+      </c>
+      <c r="F3459" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3459" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3460">
+      <c r="A3460" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3460" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3460" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3460" s="0">
+        <v>391218</v>
+      </c>
+      <c r="E3460" s="0">
+        <v>0.591970632828648</v>
+      </c>
+      <c r="F3460" s="0">
+        <v>5882</v>
+      </c>
+      <c r="G3460" s="0">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3461">
+      <c r="A3461" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3461" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3461" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3461" s="0">
+        <v>82902</v>
+      </c>
+      <c r="E3461" s="0">
+        <v>0.125442974001096</v>
+      </c>
+      <c r="F3461" s="0">
+        <v>1428</v>
+      </c>
+      <c r="G3461" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3462">
+      <c r="A3462" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3462" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3462" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3462" s="0">
+        <v>5418</v>
+      </c>
+      <c r="E3462" s="0">
+        <v>8.19823445921613E-03</v>
+      </c>
+      <c r="F3462" s="0">
+        <v>37</v>
+      </c>
+      <c r="G3462" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3463">
+      <c r="A3463" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3463" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3463" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3463" s="0">
+        <v>829</v>
+      </c>
+      <c r="E3463" s="0">
+        <v>1.25439947705614E-03</v>
+      </c>
+      <c r="F3463" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3463" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3464">
+      <c r="A3464" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3464" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3464" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3464" s="0">
+        <v>448</v>
+      </c>
+      <c r="E3464" s="0">
+        <v>6.77890187842161E-04</v>
+      </c>
+      <c r="F3464" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3464" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3465">
+      <c r="A3465" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3465" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3465" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3465" s="0">
+        <v>55119</v>
+      </c>
+      <c r="E3465" s="0">
+        <v>8.34031903206965E-02</v>
+      </c>
+      <c r="F3465" s="0">
+        <v>272</v>
+      </c>
+      <c r="G3465" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3466">
+      <c r="A3466" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3466" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3466" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3466" s="0">
+        <v>124940</v>
+      </c>
+      <c r="E3466" s="0">
+        <v>0.189052678725445</v>
+      </c>
+      <c r="F3466" s="0">
+        <v>379</v>
+      </c>
+      <c r="G3466" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3467">
+      <c r="A3467" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3467" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3467" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3467" s="0">
+        <v>398555</v>
+      </c>
+      <c r="E3467" s="0">
+        <v>0.603072597802304</v>
+      </c>
+      <c r="F3467" s="0">
+        <v>6977</v>
+      </c>
+      <c r="G3467" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3468">
+      <c r="A3468" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3468" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3468" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3468" s="0">
+        <v>42614</v>
+      </c>
+      <c r="E3468" s="0">
+        <v>6.44812778230041E-02</v>
+      </c>
+      <c r="F3468" s="0">
+        <v>241</v>
+      </c>
+      <c r="G3468" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3469">
+      <c r="A3469" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3469" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3469" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3469" s="0">
+        <v>219705</v>
+      </c>
+      <c r="E3469" s="0">
+        <v>0.332446124374692</v>
+      </c>
+      <c r="F3469" s="0">
+        <v>793</v>
+      </c>
+      <c r="G3469" s="0">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3470">
+      <c r="A3470" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3470" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3470" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3470" s="0">
+        <v>350900</v>
+      </c>
+      <c r="E3470" s="0">
+        <v>0.530963542218335</v>
+      </c>
+      <c r="F3470" s="0">
+        <v>3680</v>
+      </c>
+      <c r="G3470" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3471">
+      <c r="A3471" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3471" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3471" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3471" s="0">
+        <v>304518</v>
+      </c>
+      <c r="E3471" s="0">
+        <v>0.460780723708301</v>
+      </c>
+      <c r="F3471" s="0">
+        <v>4324</v>
+      </c>
+      <c r="G3471" s="0">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3472">
+      <c r="A3472" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3472" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C3472" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3472" s="0">
+        <v>5456</v>
+      </c>
+      <c r="E3472" s="0">
+        <v>8.25573407336345E-03</v>
+      </c>
+      <c r="F3472" s="0">
+        <v>7</v>
+      </c>
+      <c r="G3472" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3473">
+      <c r="A3473" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3473" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3473" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3473" s="0">
+        <v>395401</v>
+      </c>
+      <c r="E3473" s="0">
+        <v>0.594142139958137</v>
+      </c>
+      <c r="F3473" s="0">
+        <v>6005</v>
+      </c>
+      <c r="G3473" s="0">
+        <v>0.736990672557683</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3474">
+      <c r="A3474" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3474" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3474" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3474" s="0">
+        <v>83751</v>
+      </c>
+      <c r="E3474" s="0">
+        <v>0.125846920881925</v>
+      </c>
+      <c r="F3474" s="0">
+        <v>1454</v>
+      </c>
+      <c r="G3474" s="0">
+        <v>0.178448699067256</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3475">
+      <c r="A3475" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3475" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3475" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3475" s="0">
+        <v>55439</v>
+      </c>
+      <c r="E3475" s="0">
+        <v>8.33044076700341E-02</v>
+      </c>
+      <c r="F3475" s="0">
+        <v>275</v>
+      </c>
+      <c r="G3475" s="0">
+        <v>3.37506136475209E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3476">
+      <c r="A3476" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3476" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3476" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3476" s="0">
+        <v>5468</v>
+      </c>
+      <c r="E3476" s="0">
+        <v>0.008216391008852</v>
+      </c>
+      <c r="F3476" s="0">
+        <v>39</v>
+      </c>
+      <c r="G3476" s="0">
+        <v>4.78645066273932E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3477">
+      <c r="A3477" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3477" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3477" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3477" s="0">
+        <v>837</v>
+      </c>
+      <c r="E3477" s="0">
+        <v>1.2577028665708E-03</v>
+      </c>
+      <c r="F3477" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3477" s="0">
+        <v>1.10456553755523E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3478">
+      <c r="A3478" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3478" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3478" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3478" s="0">
+        <v>451</v>
+      </c>
+      <c r="E3478" s="0">
+        <v>6.77686968725723E-04</v>
+      </c>
+      <c r="F3478" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3478" s="0">
+        <v>4.90918016691213E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3479">
+      <c r="A3479" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3479" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3479" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3479" s="0">
+        <v>124152</v>
+      </c>
+      <c r="E3479" s="0">
+        <v>0.186554750645756</v>
+      </c>
+      <c r="F3479" s="0">
+        <v>362</v>
+      </c>
+      <c r="G3479" s="0">
+        <v>4.44280805105547E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3480">
+      <c r="A3480" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3480" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3480" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3480" s="0">
+        <v>403891</v>
+      </c>
+      <c r="E3480" s="0">
+        <v>0.606899484447009</v>
+      </c>
+      <c r="F3480" s="0">
+        <v>7127</v>
+      </c>
+      <c r="G3480" s="0">
+        <v>0.874693176239568</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3481">
+      <c r="A3481" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3481" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3481" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3481" s="0">
+        <v>42837</v>
+      </c>
+      <c r="E3481" s="0">
+        <v>6.43682409740661E-02</v>
+      </c>
+      <c r="F3481" s="0">
+        <v>243</v>
+      </c>
+      <c r="G3481" s="0">
+        <v>2.98232695139912E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3482">
+      <c r="A3482" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3482" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3482" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3482" s="0">
+        <v>218771</v>
+      </c>
+      <c r="E3482" s="0">
+        <v>0.328732274578925</v>
+      </c>
+      <c r="F3482" s="0">
+        <v>778</v>
+      </c>
+      <c r="G3482" s="0">
+        <v>9.54835542464408E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3483">
+      <c r="A3483" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3483" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3483" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3483" s="0">
+        <v>353581</v>
+      </c>
+      <c r="E3483" s="0">
+        <v>0.531302075585388</v>
+      </c>
+      <c r="F3483" s="0">
+        <v>3740</v>
+      </c>
+      <c r="G3483" s="0">
+        <v>0.459008345606284</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3484">
+      <c r="A3484" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3484" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3484" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3484" s="0">
+        <v>306795</v>
+      </c>
+      <c r="E3484" s="0">
+        <v>0.460999941397357</v>
+      </c>
+      <c r="F3484" s="0">
+        <v>4402</v>
+      </c>
+      <c r="G3484" s="0">
+        <v>0.540255277368679</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3485">
+      <c r="A3485" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3485" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C3485" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3485" s="0">
+        <v>5123</v>
+      </c>
+      <c r="E3485" s="0">
+        <v>7.69798301725472E-03</v>
+      </c>
+      <c r="F3485" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3485" s="0">
+        <v>7.36377025036819E-04</v>
       </c>
     </row>
   </sheetData>
@@ -87634,13 +89740,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2533</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2533</Url>
-      <Description>HJYU5V3E37X6-122305290-2533</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -87655,24 +89754,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2607</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2607</Url>
+      <Description>HJYU5V3E37X6-122305290-2607</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1DEB7F-3C1B-4A01-884B-AF283F45DA18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9751CF1-D831-4D33-9527-2EF9D2AE27EF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0379AE6-9965-4D25-97FB-ECCF1C2013D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D06142-7DFB-452B-83EF-C2521D1873B0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{968C885D-4013-4365-9452-53EA23B2C171}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309705F2-446E-4517-8801-79116AC9502F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85CA92C-9AD0-4B87-AA20-A5DF7FF2EA2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2E5EDB-2563-4787-9AC5-7111BAB5ECEE}"/>
 </file>
--- a/Public-Dataset-RaceEthSex-2.xlsx
+++ b/Public-Dataset-RaceEthSex-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3485</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3511</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3485"/>
+  <dimension ref="A1:G3511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -88985,7 +88985,7 @@
         <v>6005</v>
       </c>
       <c r="G3473" s="0">
-        <v>0.736990672557683</v>
+        <v>0.736</v>
       </c>
     </row>
     <row outlineLevel="0" r="3474">
@@ -89012,13 +89012,13 @@
         <v>1454</v>
       </c>
       <c r="G3474" s="0">
-        <v>0.178448699067256</v>
+        <v>0.178</v>
       </c>
     </row>
     <row outlineLevel="0" r="3475">
       <c r="A3475" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3475" s="1">
@@ -89030,22 +89030,22 @@
         </is>
       </c>
       <c r="D3475" s="0">
-        <v>55439</v>
+        <v>5468</v>
       </c>
       <c r="E3475" s="0">
-        <v>8.33044076700341E-02</v>
+        <v>0.008216391008852</v>
       </c>
       <c r="F3475" s="0">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="G3475" s="0">
-        <v>3.37506136475209E-02</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="3476">
       <c r="A3476" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B3476" s="1">
@@ -89057,22 +89057,22 @@
         </is>
       </c>
       <c r="D3476" s="0">
-        <v>5468</v>
+        <v>837</v>
       </c>
       <c r="E3476" s="0">
-        <v>0.008216391008852</v>
+        <v>1.2577028665708E-03</v>
       </c>
       <c r="F3476" s="0">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G3476" s="0">
-        <v>4.78645066273932E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="3477">
       <c r="A3477" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B3477" s="1">
@@ -89084,22 +89084,22 @@
         </is>
       </c>
       <c r="D3477" s="0">
-        <v>837</v>
+        <v>451</v>
       </c>
       <c r="E3477" s="0">
-        <v>1.2577028665708E-03</v>
+        <v>6.77686968725723E-04</v>
       </c>
       <c r="F3477" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3477" s="0">
-        <v>1.10456553755523E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3478">
       <c r="A3478" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B3478" s="1">
@@ -89111,16 +89111,16 @@
         </is>
       </c>
       <c r="D3478" s="0">
-        <v>451</v>
+        <v>55439</v>
       </c>
       <c r="E3478" s="0">
-        <v>6.77686968725723E-04</v>
+        <v>8.33044076700341E-02</v>
       </c>
       <c r="F3478" s="0">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="G3478" s="0">
-        <v>4.90918016691213E-04</v>
+        <v>0.033</v>
       </c>
     </row>
     <row outlineLevel="0" r="3479">
@@ -89147,7 +89147,7 @@
         <v>362</v>
       </c>
       <c r="G3479" s="0">
-        <v>4.44280805105547E-02</v>
+        <v>0.044</v>
       </c>
     </row>
     <row outlineLevel="0" r="3480">
@@ -89174,7 +89174,7 @@
         <v>7127</v>
       </c>
       <c r="G3480" s="0">
-        <v>0.874693176239568</v>
+        <v>0.874</v>
       </c>
     </row>
     <row outlineLevel="0" r="3481">
@@ -89201,7 +89201,7 @@
         <v>243</v>
       </c>
       <c r="G3481" s="0">
-        <v>2.98232695139912E-02</v>
+        <v>0.029</v>
       </c>
     </row>
     <row outlineLevel="0" r="3482">
@@ -89228,7 +89228,7 @@
         <v>778</v>
       </c>
       <c r="G3482" s="0">
-        <v>9.54835542464408E-02</v>
+        <v>0.095</v>
       </c>
     </row>
     <row outlineLevel="0" r="3483">
@@ -89255,7 +89255,7 @@
         <v>3740</v>
       </c>
       <c r="G3483" s="0">
-        <v>0.459008345606284</v>
+        <v>0.459</v>
       </c>
     </row>
     <row outlineLevel="0" r="3484">
@@ -89282,7 +89282,7 @@
         <v>4402</v>
       </c>
       <c r="G3484" s="0">
-        <v>0.540255277368679</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="3485">
@@ -89309,7 +89309,709 @@
         <v>6</v>
       </c>
       <c r="G3485" s="0">
-        <v>7.36377025036819E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3486">
+      <c r="A3486" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3486" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3486" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3486" s="0">
+        <v>398507</v>
+      </c>
+      <c r="E3486" s="0">
+        <v>0.594358983537217</v>
+      </c>
+      <c r="F3486" s="0">
+        <v>6062</v>
+      </c>
+      <c r="G3486" s="0">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3487">
+      <c r="A3487" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3487" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3487" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3487" s="0">
+        <v>84250</v>
+      </c>
+      <c r="E3487" s="0">
+        <v>0.125655871447705</v>
+      </c>
+      <c r="F3487" s="0">
+        <v>1462</v>
+      </c>
+      <c r="G3487" s="0">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3488">
+      <c r="A3488" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3488" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3488" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3488" s="0">
+        <v>5536</v>
+      </c>
+      <c r="E3488" s="0">
+        <v>8.25674663898509E-03</v>
+      </c>
+      <c r="F3488" s="0">
+        <v>39</v>
+      </c>
+      <c r="G3488" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3489">
+      <c r="A3489" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3489" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3489" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3489" s="0">
+        <v>843</v>
+      </c>
+      <c r="E3489" s="0">
+        <v>1.25730444665181E-03</v>
+      </c>
+      <c r="F3489" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3489" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3490">
+      <c r="A3490" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3490" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3490" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3490" s="0">
+        <v>452</v>
+      </c>
+      <c r="E3490" s="0">
+        <v>6.74141885986499E-04</v>
+      </c>
+      <c r="F3490" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3490" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3491">
+      <c r="A3491" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3491" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3491" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3491" s="0">
+        <v>55742</v>
+      </c>
+      <c r="E3491" s="0">
+        <v>8.31372057713704E-02</v>
+      </c>
+      <c r="F3491" s="0">
+        <v>279</v>
+      </c>
+      <c r="G3491" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3492">
+      <c r="A3492" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3492" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3492" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3492" s="0">
+        <v>125152</v>
+      </c>
+      <c r="E3492" s="0">
+        <v>0.186659746272085</v>
+      </c>
+      <c r="F3492" s="0">
+        <v>377</v>
+      </c>
+      <c r="G3492" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3493">
+      <c r="A3493" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3493" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3493" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3493" s="0">
+        <v>406403</v>
+      </c>
+      <c r="E3493" s="0">
+        <v>0.606135586041087</v>
+      </c>
+      <c r="F3493" s="0">
+        <v>7184</v>
+      </c>
+      <c r="G3493" s="0">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3494">
+      <c r="A3494" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3494" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3494" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3494" s="0">
+        <v>43052</v>
+      </c>
+      <c r="E3494" s="0">
+        <v>6.42105231758645E-02</v>
+      </c>
+      <c r="F3494" s="0">
+        <v>244</v>
+      </c>
+      <c r="G3494" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3495">
+      <c r="A3495" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3495" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3495" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3495" s="0">
+        <v>221027</v>
+      </c>
+      <c r="E3495" s="0">
+        <v>0.329653890783049</v>
+      </c>
+      <c r="F3495" s="0">
+        <v>804</v>
+      </c>
+      <c r="G3495" s="0">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3496">
+      <c r="A3496" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3496" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3496" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3496" s="0">
+        <v>356245</v>
+      </c>
+      <c r="E3496" s="0">
+        <v>0.531326717197479</v>
+      </c>
+      <c r="F3496" s="0">
+        <v>3778</v>
+      </c>
+      <c r="G3496" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3497">
+      <c r="A3497" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3497" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3497" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3497" s="0">
+        <v>309062</v>
+      </c>
+      <c r="E3497" s="0">
+        <v>0.460954954793716</v>
+      </c>
+      <c r="F3497" s="0">
+        <v>4448</v>
+      </c>
+      <c r="G3497" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3498">
+      <c r="A3498" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3498" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C3498" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3498" s="0">
+        <v>5175</v>
+      </c>
+      <c r="E3498" s="0">
+        <v>7.71832800880561E-03</v>
+      </c>
+      <c r="F3498" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3498" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3499">
+      <c r="A3499" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3499" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3499" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3499" s="0">
+        <v>401882</v>
+      </c>
+      <c r="E3499" s="0">
+        <v>0.594465703901698</v>
+      </c>
+      <c r="F3499" s="0">
+        <v>6119</v>
+      </c>
+      <c r="G3499" s="0">
+        <v>0.736253158464685</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3500">
+      <c r="A3500" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3500" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3500" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3500" s="0">
+        <v>84822</v>
+      </c>
+      <c r="E3500" s="0">
+        <v>0.125469092759441</v>
+      </c>
+      <c r="F3500" s="0">
+        <v>1474</v>
+      </c>
+      <c r="G3500" s="0">
+        <v>0.177355312236795</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3501">
+      <c r="A3501" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3501" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3501" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3501" s="0">
+        <v>56144</v>
+      </c>
+      <c r="E3501" s="0">
+        <v>8.30484631803786E-02</v>
+      </c>
+      <c r="F3501" s="0">
+        <v>284</v>
+      </c>
+      <c r="G3501" s="0">
+        <v>0.034171579833955</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3502">
+      <c r="A3502" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3502" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3502" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3502" s="0">
+        <v>5607</v>
+      </c>
+      <c r="E3502" s="0">
+        <v>8.29390020398232E-03</v>
+      </c>
+      <c r="F3502" s="0">
+        <v>40</v>
+      </c>
+      <c r="G3502" s="0">
+        <v>4.81289856816268E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3503">
+      <c r="A3503" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3503" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3503" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3503" s="0">
+        <v>851</v>
+      </c>
+      <c r="E3503" s="0">
+        <v>1.25880311638826E-03</v>
+      </c>
+      <c r="F3503" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3503" s="0">
+        <v>1.0829021778366E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3504">
+      <c r="A3504" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3504" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3504" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3504" s="0">
+        <v>459</v>
+      </c>
+      <c r="E3504" s="0">
+        <v>6.78954912364523E-04</v>
+      </c>
+      <c r="F3504" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3504" s="0">
+        <v>4.81289856816268E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3505">
+      <c r="A3505" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3505" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3505" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3505" s="0">
+        <v>126274</v>
+      </c>
+      <c r="E3505" s="0">
+        <v>0.186785081925747</v>
+      </c>
+      <c r="F3505" s="0">
+        <v>381</v>
+      </c>
+      <c r="G3505" s="0">
+        <v>4.58428588617495E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3506">
+      <c r="A3506" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3506" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3506" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3506" s="0">
+        <v>409398</v>
+      </c>
+      <c r="E3506" s="0">
+        <v>0.605583405691092</v>
+      </c>
+      <c r="F3506" s="0">
+        <v>7241</v>
+      </c>
+      <c r="G3506" s="0">
+        <v>0.871254963301648</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3507">
+      <c r="A3507" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3507" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3507" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3507" s="0">
+        <v>43344</v>
+      </c>
+      <c r="E3507" s="0">
+        <v>6.41146442734813E-02</v>
+      </c>
+      <c r="F3507" s="0">
+        <v>248</v>
+      </c>
+      <c r="G3507" s="0">
+        <v>2.98399711226086E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3508">
+      <c r="A3508" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3508" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3508" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3508" s="0">
+        <v>223297</v>
+      </c>
+      <c r="E3508" s="0">
+        <v>0.330301950035427</v>
+      </c>
+      <c r="F3508" s="0">
+        <v>822</v>
+      </c>
+      <c r="G3508" s="0">
+        <v>0.098905065575743</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3509">
+      <c r="A3509" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3509" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3509" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3509" s="0">
+        <v>359197</v>
+      </c>
+      <c r="E3509" s="0">
+        <v>0.531325855461002</v>
+      </c>
+      <c r="F3509" s="0">
+        <v>3810</v>
+      </c>
+      <c r="G3509" s="0">
+        <v>0.458428588617495</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3510">
+      <c r="A3510" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3510" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3510" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3510" s="0">
+        <v>311621</v>
+      </c>
+      <c r="E3510" s="0">
+        <v>0.460951217311427</v>
+      </c>
+      <c r="F3510" s="0">
+        <v>4495</v>
+      </c>
+      <c r="G3510" s="0">
+        <v>0.540849476597281</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3511">
+      <c r="A3511" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3511" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C3511" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3511" s="0">
+        <v>5221</v>
+      </c>
+      <c r="E3511" s="0">
+        <v>7.72292722757119E-03</v>
+      </c>
+      <c r="F3511" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3511" s="0">
+        <v>7.21934785224401E-04</v>
       </c>
     </row>
   </sheetData>
@@ -89740,6 +90442,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2625</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2625</Url>
+      <Description>HJYU5V3E37X6-122305290-2625</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -89754,31 +90463,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2607</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2607</Url>
-      <Description>HJYU5V3E37X6-122305290-2607</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9751CF1-D831-4D33-9527-2EF9D2AE27EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA8235D-5A26-4F91-B880-A4C6FFC20C21}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D06142-7DFB-452B-83EF-C2521D1873B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EA6F6F-03BC-4F4F-B116-D121EB1747C1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309705F2-446E-4517-8801-79116AC9502F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C031E55F-C76F-40F9-897C-1C38CD2779AC}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2E5EDB-2563-4787-9AC5-7111BAB5ECEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D2C80B-53C2-405B-84AA-B58D67DDA320}"/>
 </file>
--- a/Public-Dataset-RaceEthSex-2.xlsx
+++ b/Public-Dataset-RaceEthSex-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3511</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3576</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3511"/>
+  <dimension ref="A1:G3576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -89687,7 +89687,7 @@
         <v>6119</v>
       </c>
       <c r="G3499" s="0">
-        <v>0.736253158464685</v>
+        <v>0.736</v>
       </c>
     </row>
     <row outlineLevel="0" r="3500">
@@ -89714,13 +89714,13 @@
         <v>1474</v>
       </c>
       <c r="G3500" s="0">
-        <v>0.177355312236795</v>
+        <v>0.177</v>
       </c>
     </row>
     <row outlineLevel="0" r="3501">
       <c r="A3501" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3501" s="1">
@@ -89732,22 +89732,22 @@
         </is>
       </c>
       <c r="D3501" s="0">
-        <v>56144</v>
+        <v>5607</v>
       </c>
       <c r="E3501" s="0">
-        <v>8.30484631803786E-02</v>
+        <v>8.29390020398232E-03</v>
       </c>
       <c r="F3501" s="0">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="G3501" s="0">
-        <v>0.034171579833955</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="3502">
       <c r="A3502" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B3502" s="1">
@@ -89759,22 +89759,22 @@
         </is>
       </c>
       <c r="D3502" s="0">
-        <v>5607</v>
+        <v>851</v>
       </c>
       <c r="E3502" s="0">
-        <v>8.29390020398232E-03</v>
+        <v>1.25880311638826E-03</v>
       </c>
       <c r="F3502" s="0">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G3502" s="0">
-        <v>4.81289856816268E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="3503">
       <c r="A3503" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B3503" s="1">
@@ -89786,22 +89786,22 @@
         </is>
       </c>
       <c r="D3503" s="0">
-        <v>851</v>
+        <v>459</v>
       </c>
       <c r="E3503" s="0">
-        <v>1.25880311638826E-03</v>
+        <v>6.78954912364523E-04</v>
       </c>
       <c r="F3503" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3503" s="0">
-        <v>1.0829021778366E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3504">
       <c r="A3504" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B3504" s="1">
@@ -89813,16 +89813,16 @@
         </is>
       </c>
       <c r="D3504" s="0">
-        <v>459</v>
+        <v>56144</v>
       </c>
       <c r="E3504" s="0">
-        <v>6.78954912364523E-04</v>
+        <v>8.30484631803786E-02</v>
       </c>
       <c r="F3504" s="0">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="G3504" s="0">
-        <v>4.81289856816268E-04</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="3505">
@@ -89849,7 +89849,7 @@
         <v>381</v>
       </c>
       <c r="G3505" s="0">
-        <v>4.58428588617495E-02</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="3506">
@@ -89876,7 +89876,7 @@
         <v>7241</v>
       </c>
       <c r="G3506" s="0">
-        <v>0.871254963301648</v>
+        <v>0.871</v>
       </c>
     </row>
     <row outlineLevel="0" r="3507">
@@ -89903,7 +89903,7 @@
         <v>248</v>
       </c>
       <c r="G3507" s="0">
-        <v>2.98399711226086E-02</v>
+        <v>0.029</v>
       </c>
     </row>
     <row outlineLevel="0" r="3508">
@@ -89930,7 +89930,7 @@
         <v>822</v>
       </c>
       <c r="G3508" s="0">
-        <v>0.098905065575743</v>
+        <v>0.098</v>
       </c>
     </row>
     <row outlineLevel="0" r="3509">
@@ -89957,7 +89957,7 @@
         <v>3810</v>
       </c>
       <c r="G3509" s="0">
-        <v>0.458428588617495</v>
+        <v>0.458</v>
       </c>
     </row>
     <row outlineLevel="0" r="3510">
@@ -89984,7 +89984,7 @@
         <v>4495</v>
       </c>
       <c r="G3510" s="0">
-        <v>0.540849476597281</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="3511">
@@ -90011,7 +90011,1762 @@
         <v>6</v>
       </c>
       <c r="G3511" s="0">
-        <v>7.21934785224401E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3512">
+      <c r="A3512" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3512" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3512" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3512" s="0">
+        <v>404894</v>
+      </c>
+      <c r="E3512" s="0">
+        <v>0.59469161206556</v>
+      </c>
+      <c r="F3512" s="0">
+        <v>6149</v>
+      </c>
+      <c r="G3512" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3513">
+      <c r="A3513" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3513" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3513" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3513" s="0">
+        <v>85350</v>
+      </c>
+      <c r="E3513" s="0">
+        <v>0.125358560733909</v>
+      </c>
+      <c r="F3513" s="0">
+        <v>1488</v>
+      </c>
+      <c r="G3513" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3514">
+      <c r="A3514" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3514" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3514" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3514" s="0">
+        <v>5668</v>
+      </c>
+      <c r="E3514" s="0">
+        <v>8.32492468939424E-03</v>
+      </c>
+      <c r="F3514" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3514" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3515">
+      <c r="A3515" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3515" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3515" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3515" s="0">
+        <v>862</v>
+      </c>
+      <c r="E3515" s="0">
+        <v>1.26607005685565E-03</v>
+      </c>
+      <c r="F3515" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3515" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3516">
+      <c r="A3516" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3516" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3516" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3516" s="0">
+        <v>462</v>
+      </c>
+      <c r="E3516" s="0">
+        <v>6.78566550194096E-04</v>
+      </c>
+      <c r="F3516" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3516" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3517">
+      <c r="A3517" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3517" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3517" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3517" s="0">
+        <v>56495</v>
+      </c>
+      <c r="E3517" s="0">
+        <v>8.29775265221114E-02</v>
+      </c>
+      <c r="F3517" s="0">
+        <v>285</v>
+      </c>
+      <c r="G3517" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3518">
+      <c r="A3518" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3518" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3518" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3518" s="0">
+        <v>127116</v>
+      </c>
+      <c r="E3518" s="0">
+        <v>0.186702739381976</v>
+      </c>
+      <c r="F3518" s="0">
+        <v>379</v>
+      </c>
+      <c r="G3518" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3519">
+      <c r="A3519" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3519" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3519" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3519" s="0">
+        <v>412033</v>
+      </c>
+      <c r="E3519" s="0">
+        <v>0.605177080900702</v>
+      </c>
+      <c r="F3519" s="0">
+        <v>7282</v>
+      </c>
+      <c r="G3519" s="0">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3520">
+      <c r="A3520" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3520" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3520" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3520" s="0">
+        <v>43564</v>
+      </c>
+      <c r="E3520" s="0">
+        <v>0.06398500691051</v>
+      </c>
+      <c r="F3520" s="0">
+        <v>248</v>
+      </c>
+      <c r="G3520" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3521">
+      <c r="A3521" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3521" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3521" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3521" s="0">
+        <v>225250</v>
+      </c>
+      <c r="E3521" s="0">
+        <v>0.330837912188788</v>
+      </c>
+      <c r="F3521" s="0">
+        <v>825</v>
+      </c>
+      <c r="G3521" s="0">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3522">
+      <c r="A3522" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3522" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3522" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3522" s="0">
+        <v>361683</v>
+      </c>
+      <c r="E3522" s="0">
+        <v>0.531225076999678</v>
+      </c>
+      <c r="F3522" s="0">
+        <v>3835</v>
+      </c>
+      <c r="G3522" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3523">
+      <c r="A3523" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3523" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3523" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3523" s="0">
+        <v>313879</v>
+      </c>
+      <c r="E3523" s="0">
+        <v>0.461012532918556</v>
+      </c>
+      <c r="F3523" s="0">
+        <v>4514</v>
+      </c>
+      <c r="G3523" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3524">
+      <c r="A3524" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3524" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C3524" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3524" s="0">
+        <v>5285</v>
+      </c>
+      <c r="E3524" s="0">
+        <v>7.7623900817658E-03</v>
+      </c>
+      <c r="F3524" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3524" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3525">
+      <c r="A3525" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3525" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3525" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3525" s="0">
+        <v>407366</v>
+      </c>
+      <c r="E3525" s="0">
+        <v>0.594416339204548</v>
+      </c>
+      <c r="F3525" s="0">
+        <v>6173</v>
+      </c>
+      <c r="G3525" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3526">
+      <c r="A3526" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3526" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3526" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3526" s="0">
+        <v>85850</v>
+      </c>
+      <c r="E3526" s="0">
+        <v>0.125269764095949</v>
+      </c>
+      <c r="F3526" s="0">
+        <v>1497</v>
+      </c>
+      <c r="G3526" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3527">
+      <c r="A3527" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3527" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3527" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3527" s="0">
+        <v>5722</v>
+      </c>
+      <c r="E3527" s="0">
+        <v>8.34937204609227E-03</v>
+      </c>
+      <c r="F3527" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3527" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3528">
+      <c r="A3528" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3528" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3528" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3528" s="0">
+        <v>872</v>
+      </c>
+      <c r="E3528" s="0">
+        <v>1.27239643904097E-03</v>
+      </c>
+      <c r="F3528" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3528" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3529">
+      <c r="A3529" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3529" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3529" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3529" s="0">
+        <v>464</v>
+      </c>
+      <c r="E3529" s="0">
+        <v>6.77054985911711E-04</v>
+      </c>
+      <c r="F3529" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3529" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3530">
+      <c r="A3530" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3530" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3530" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3530" s="0">
+        <v>56787</v>
+      </c>
+      <c r="E3530" s="0">
+        <v>0.082861899752087</v>
+      </c>
+      <c r="F3530" s="0">
+        <v>285</v>
+      </c>
+      <c r="G3530" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3531">
+      <c r="A3531" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3531" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3531" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3531" s="0">
+        <v>128260</v>
+      </c>
+      <c r="E3531" s="0">
+        <v>0.187153173476371</v>
+      </c>
+      <c r="F3531" s="0">
+        <v>382</v>
+      </c>
+      <c r="G3531" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3532">
+      <c r="A3532" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3532" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3532" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3532" s="0">
+        <v>413943</v>
+      </c>
+      <c r="E3532" s="0">
+        <v>0.604013301795801</v>
+      </c>
+      <c r="F3532" s="0">
+        <v>7308</v>
+      </c>
+      <c r="G3532" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3533">
+      <c r="A3533" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3533" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3533" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3533" s="0">
+        <v>43706</v>
+      </c>
+      <c r="E3533" s="0">
+        <v>6.37744939962441E-02</v>
+      </c>
+      <c r="F3533" s="0">
+        <v>248</v>
+      </c>
+      <c r="G3533" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3534">
+      <c r="A3534" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3534" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3534" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3534" s="0">
+        <v>227672</v>
+      </c>
+      <c r="E3534" s="0">
+        <v>0.332212204207955</v>
+      </c>
+      <c r="F3534" s="0">
+        <v>835</v>
+      </c>
+      <c r="G3534" s="0">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3535">
+      <c r="A3535" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3535" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3535" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3535" s="0">
+        <v>364006</v>
+      </c>
+      <c r="E3535" s="0">
+        <v>0.531146718107281</v>
+      </c>
+      <c r="F3535" s="0">
+        <v>3854</v>
+      </c>
+      <c r="G3535" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3536">
+      <c r="A3536" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3536" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3536" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3536" s="0">
+        <v>315984</v>
+      </c>
+      <c r="E3536" s="0">
+        <v>0.461074445405875</v>
+      </c>
+      <c r="F3536" s="0">
+        <v>4531</v>
+      </c>
+      <c r="G3536" s="0">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3537">
+      <c r="A3537" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3537" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C3537" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3537" s="0">
+        <v>5331</v>
+      </c>
+      <c r="E3537" s="0">
+        <v>7.77883648684339E-03</v>
+      </c>
+      <c r="F3537" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3537" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3538">
+      <c r="A3538" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3538" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3538" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3538" s="0">
+        <v>408682</v>
+      </c>
+      <c r="E3538" s="0">
+        <v>0.594229597630538</v>
+      </c>
+      <c r="F3538" s="0">
+        <v>6200</v>
+      </c>
+      <c r="G3538" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3539">
+      <c r="A3539" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3539" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3539" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3539" s="0">
+        <v>86113</v>
+      </c>
+      <c r="E3539" s="0">
+        <v>0.125209559855238</v>
+      </c>
+      <c r="F3539" s="0">
+        <v>1501</v>
+      </c>
+      <c r="G3539" s="0">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3540">
+      <c r="A3540" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3540" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3540" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3540" s="0">
+        <v>5763</v>
+      </c>
+      <c r="E3540" s="0">
+        <v>8.37948618031817E-03</v>
+      </c>
+      <c r="F3540" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3540" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3541">
+      <c r="A3541" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3541" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3541" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3541" s="0">
+        <v>876</v>
+      </c>
+      <c r="E3541" s="0">
+        <v>1.27371679575893E-03</v>
+      </c>
+      <c r="F3541" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3541" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3542">
+      <c r="A3542" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3542" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3542" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3542" s="0">
+        <v>465</v>
+      </c>
+      <c r="E3542" s="0">
+        <v>6.76116792269295E-04</v>
+      </c>
+      <c r="F3542" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3542" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3543">
+      <c r="A3543" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3543" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3543" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3543" s="0">
+        <v>56883</v>
+      </c>
+      <c r="E3543" s="0">
+        <v>8.27087128917297E-02</v>
+      </c>
+      <c r="F3543" s="0">
+        <v>285</v>
+      </c>
+      <c r="G3543" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3544">
+      <c r="A3544" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3544" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3544" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3544" s="0">
+        <v>128969</v>
+      </c>
+      <c r="E3544" s="0">
+        <v>0.187522809854148</v>
+      </c>
+      <c r="F3544" s="0">
+        <v>390</v>
+      </c>
+      <c r="G3544" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3545">
+      <c r="A3545" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3545" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3545" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3545" s="0">
+        <v>415050</v>
+      </c>
+      <c r="E3545" s="0">
+        <v>0.60348876264811</v>
+      </c>
+      <c r="F3545" s="0">
+        <v>7327</v>
+      </c>
+      <c r="G3545" s="0">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3546">
+      <c r="A3546" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3546" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3546" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3546" s="0">
+        <v>43783</v>
+      </c>
+      <c r="E3546" s="0">
+        <v>0.063661121539627</v>
+      </c>
+      <c r="F3546" s="0">
+        <v>248</v>
+      </c>
+      <c r="G3546" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3547">
+      <c r="A3547" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3547" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3547" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3547" s="0">
+        <v>228918</v>
+      </c>
+      <c r="E3547" s="0">
+        <v>0.332850115812263</v>
+      </c>
+      <c r="F3547" s="0">
+        <v>855</v>
+      </c>
+      <c r="G3547" s="0">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3548">
+      <c r="A3548" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3548" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3548" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3548" s="0">
+        <v>365233</v>
+      </c>
+      <c r="E3548" s="0">
+        <v>0.531054116969659</v>
+      </c>
+      <c r="F3548" s="0">
+        <v>3871</v>
+      </c>
+      <c r="G3548" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3549">
+      <c r="A3549" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3549" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3549" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3549" s="0">
+        <v>317193</v>
+      </c>
+      <c r="E3549" s="0">
+        <v>0.461203255247902</v>
+      </c>
+      <c r="F3549" s="0">
+        <v>4553</v>
+      </c>
+      <c r="G3549" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3550">
+      <c r="A3550" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3550" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C3550" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3550" s="0">
+        <v>5325</v>
+      </c>
+      <c r="E3550" s="0">
+        <v>7.7426277824387E-03</v>
+      </c>
+      <c r="F3550" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3550" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3551">
+      <c r="A3551" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3551" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3551" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3551" s="0">
+        <v>410223</v>
+      </c>
+      <c r="E3551" s="0">
+        <v>0.594691566348897</v>
+      </c>
+      <c r="F3551" s="0">
+        <v>6228</v>
+      </c>
+      <c r="G3551" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3552">
+      <c r="A3552" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3552" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3552" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3552" s="0">
+        <v>86387</v>
+      </c>
+      <c r="E3552" s="0">
+        <v>0.125233398278941</v>
+      </c>
+      <c r="F3552" s="0">
+        <v>1506</v>
+      </c>
+      <c r="G3552" s="0">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3553">
+      <c r="A3553" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3553" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3553" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3553" s="0">
+        <v>5788</v>
+      </c>
+      <c r="E3553" s="0">
+        <v>8.39074061188041E-03</v>
+      </c>
+      <c r="F3553" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3553" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3554">
+      <c r="A3554" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3554" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3554" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3554" s="0">
+        <v>874</v>
+      </c>
+      <c r="E3554" s="0">
+        <v>1.26701922853896E-03</v>
+      </c>
+      <c r="F3554" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3554" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3555">
+      <c r="A3555" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3555" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3555" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3555" s="0">
+        <v>466</v>
+      </c>
+      <c r="E3555" s="0">
+        <v>6.75550298053951E-04</v>
+      </c>
+      <c r="F3555" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3555" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3556">
+      <c r="A3556" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3556" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3556" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3556" s="0">
+        <v>56987</v>
+      </c>
+      <c r="E3556" s="0">
+        <v>8.26128429939925E-02</v>
+      </c>
+      <c r="F3556" s="0">
+        <v>285</v>
+      </c>
+      <c r="G3556" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3557">
+      <c r="A3557" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3557" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3557" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3557" s="0">
+        <v>129083</v>
+      </c>
+      <c r="E3557" s="0">
+        <v>0.187128882239696</v>
+      </c>
+      <c r="F3557" s="0">
+        <v>397</v>
+      </c>
+      <c r="G3557" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3558">
+      <c r="A3558" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3558" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3558" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3558" s="0">
+        <v>416685</v>
+      </c>
+      <c r="E3558" s="0">
+        <v>0.604059390439079</v>
+      </c>
+      <c r="F3558" s="0">
+        <v>7351</v>
+      </c>
+      <c r="G3558" s="0">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3559">
+      <c r="A3559" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3559" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3559" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3559" s="0">
+        <v>43847</v>
+      </c>
+      <c r="E3559" s="0">
+        <v>6.35640642033725E-02</v>
+      </c>
+      <c r="F3559" s="0">
+        <v>248</v>
+      </c>
+      <c r="G3559" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3560">
+      <c r="A3560" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3560" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3560" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3560" s="0">
+        <v>229276</v>
+      </c>
+      <c r="E3560" s="0">
+        <v>0.332376545357549</v>
+      </c>
+      <c r="F3560" s="0">
+        <v>871</v>
+      </c>
+      <c r="G3560" s="0">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3561">
+      <c r="A3561" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3561" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3561" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3561" s="0">
+        <v>366298</v>
+      </c>
+      <c r="E3561" s="0">
+        <v>0.531014427202932</v>
+      </c>
+      <c r="F3561" s="0">
+        <v>3888</v>
+      </c>
+      <c r="G3561" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3562">
+      <c r="A3562" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3562" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3562" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3562" s="0">
+        <v>318117</v>
+      </c>
+      <c r="E3562" s="0">
+        <v>0.461167455291907</v>
+      </c>
+      <c r="F3562" s="0">
+        <v>4576</v>
+      </c>
+      <c r="G3562" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3563">
+      <c r="A3563" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3563" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C3563" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3563" s="0">
+        <v>5393</v>
+      </c>
+      <c r="E3563" s="0">
+        <v>7.81811750516086E-03</v>
+      </c>
+      <c r="F3563" s="0">
+        <v>6</v>
+      </c>
+      <c r="G3563" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3564">
+      <c r="A3564" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3564" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3564" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3564" s="0">
+        <v>412767</v>
+      </c>
+      <c r="E3564" s="0">
+        <v>0.594515844220939</v>
+      </c>
+      <c r="F3564" s="0">
+        <v>6290</v>
+      </c>
+      <c r="G3564" s="0">
+        <v>0.735156615240767</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3565">
+      <c r="A3565" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3565" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3565" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3565" s="0">
+        <v>86780</v>
+      </c>
+      <c r="E3565" s="0">
+        <v>0.124990817971139</v>
+      </c>
+      <c r="F3565" s="0">
+        <v>1517</v>
+      </c>
+      <c r="G3565" s="0">
+        <v>0.177302477793361</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3566">
+      <c r="A3566" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3566" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3566" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3566" s="0">
+        <v>57213</v>
+      </c>
+      <c r="E3566" s="0">
+        <v>8.24049281929335E-02</v>
+      </c>
+      <c r="F3566" s="0">
+        <v>288</v>
+      </c>
+      <c r="G3566" s="0">
+        <v>3.36605890603086E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3567">
+      <c r="A3567" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3567" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3567" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3567" s="0">
+        <v>5829</v>
+      </c>
+      <c r="E3567" s="0">
+        <v>8.39561509511142E-03</v>
+      </c>
+      <c r="F3567" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3567" s="0">
+        <v>4.79195885928004E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3568">
+      <c r="A3568" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3568" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3568" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3568" s="0">
+        <v>880</v>
+      </c>
+      <c r="E3568" s="0">
+        <v>1.26748006239459E-03</v>
+      </c>
+      <c r="F3568" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3568" s="0">
+        <v>1.05189340813464E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3569">
+      <c r="A3569" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3569" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3569" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3569" s="0">
+        <v>467</v>
+      </c>
+      <c r="E3569" s="0">
+        <v>6.72628624020764E-04</v>
+      </c>
+      <c r="F3569" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3569" s="0">
+        <v>4.67508181393174E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3570">
+      <c r="A3570" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3570" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3570" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3570" s="0">
+        <v>130355</v>
+      </c>
+      <c r="E3570" s="0">
+        <v>0.187752685833462</v>
+      </c>
+      <c r="F3570" s="0">
+        <v>407</v>
+      </c>
+      <c r="G3570" s="0">
+        <v>4.75689574567555E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3571">
+      <c r="A3571" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3571" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3571" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3571" s="0">
+        <v>418875</v>
+      </c>
+      <c r="E3571" s="0">
+        <v>0.60331330810856</v>
+      </c>
+      <c r="F3571" s="0">
+        <v>7413</v>
+      </c>
+      <c r="G3571" s="0">
+        <v>0.8664095371669</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3572">
+      <c r="A3572" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3572" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3572" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3572" s="0">
+        <v>43991</v>
+      </c>
+      <c r="E3572" s="0">
+        <v>6.33610402554548E-02</v>
+      </c>
+      <c r="F3572" s="0">
+        <v>249</v>
+      </c>
+      <c r="G3572" s="0">
+        <v>2.91023842917251E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3573">
+      <c r="A3573" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3573" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3573" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3573" s="0">
+        <v>231425</v>
+      </c>
+      <c r="E3573" s="0">
+        <v>0.333325651635985</v>
+      </c>
+      <c r="F3573" s="0">
+        <v>894</v>
+      </c>
+      <c r="G3573" s="0">
+        <v>0.104488078541374</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3574">
+      <c r="A3574" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3574" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3574" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3574" s="0">
+        <v>368584</v>
+      </c>
+      <c r="E3574" s="0">
+        <v>0.530878262860962</v>
+      </c>
+      <c r="F3574" s="0">
+        <v>3924</v>
+      </c>
+      <c r="G3574" s="0">
+        <v>0.458625525946704</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3575">
+      <c r="A3575" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3575" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3575" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3575" s="0">
+        <v>320272</v>
+      </c>
+      <c r="E3575" s="0">
+        <v>0.461293607435499</v>
+      </c>
+      <c r="F3575" s="0">
+        <v>4625</v>
+      </c>
+      <c r="G3575" s="0">
+        <v>0.540556334735858</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3576">
+      <c r="A3576" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3576" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C3576" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3576" s="0">
+        <v>5435</v>
+      </c>
+      <c r="E3576" s="0">
+        <v>7.82812970353929E-03</v>
+      </c>
+      <c r="F3576" s="0">
+        <v>7</v>
+      </c>
+      <c r="G3576" s="0">
+        <v>8.18139317438055E-04</v>
       </c>
     </row>
   </sheetData>
@@ -90443,11 +92198,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2625</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2680</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2625</Url>
-      <Description>HJYU5V3E37X6-122305290-2625</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2680</Url>
+      <Description>HJYU5V3E37X6-122305290-2680</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -90470,17 +92225,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA8235D-5A26-4F91-B880-A4C6FFC20C21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B35873-8A78-478C-9CD1-8F49A9B8EF02}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EA6F6F-03BC-4F4F-B116-D121EB1747C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4816E90F-114B-47CA-A4C6-573CCAA7AE62}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C031E55F-C76F-40F9-897C-1C38CD2779AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{831587E6-2918-49F9-A9BD-C86603672DEF}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D2C80B-53C2-405B-84AA-B58D67DDA320}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB06FDCC-0C8A-4F88-AD02-4708B78AD456}"/>
 </file>
--- a/Public-Dataset-RaceEthSex-2.xlsx
+++ b/Public-Dataset-RaceEthSex-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3576</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$3693</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3576"/>
+  <dimension ref="A1:G3693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -91442,7 +91442,7 @@
         <v>6290</v>
       </c>
       <c r="G3564" s="0">
-        <v>0.735156615240767</v>
+        <v>0.735</v>
       </c>
     </row>
     <row outlineLevel="0" r="3565">
@@ -91469,13 +91469,13 @@
         <v>1517</v>
       </c>
       <c r="G3565" s="0">
-        <v>0.177302477793361</v>
+        <v>0.177</v>
       </c>
     </row>
     <row outlineLevel="0" r="3566">
       <c r="A3566" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B3566" s="1">
@@ -91487,22 +91487,22 @@
         </is>
       </c>
       <c r="D3566" s="0">
-        <v>57213</v>
+        <v>5829</v>
       </c>
       <c r="E3566" s="0">
-        <v>8.24049281929335E-02</v>
+        <v>8.39561509511142E-03</v>
       </c>
       <c r="F3566" s="0">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="G3566" s="0">
-        <v>3.36605890603086E-02</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="3567">
       <c r="A3567" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B3567" s="1">
@@ -91514,22 +91514,22 @@
         </is>
       </c>
       <c r="D3567" s="0">
-        <v>5829</v>
+        <v>880</v>
       </c>
       <c r="E3567" s="0">
-        <v>8.39561509511142E-03</v>
+        <v>1.26748006239459E-03</v>
       </c>
       <c r="F3567" s="0">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G3567" s="0">
-        <v>4.79195885928004E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="3568">
       <c r="A3568" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B3568" s="1">
@@ -91541,22 +91541,22 @@
         </is>
       </c>
       <c r="D3568" s="0">
-        <v>880</v>
+        <v>467</v>
       </c>
       <c r="E3568" s="0">
-        <v>1.26748006239459E-03</v>
+        <v>6.72628624020764E-04</v>
       </c>
       <c r="F3568" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3568" s="0">
-        <v>1.05189340813464E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3569">
       <c r="A3569" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B3569" s="1">
@@ -91568,16 +91568,16 @@
         </is>
       </c>
       <c r="D3569" s="0">
-        <v>467</v>
+        <v>57213</v>
       </c>
       <c r="E3569" s="0">
-        <v>6.72628624020764E-04</v>
+        <v>8.24049281929335E-02</v>
       </c>
       <c r="F3569" s="0">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="G3569" s="0">
-        <v>4.67508181393174E-04</v>
+        <v>0.033</v>
       </c>
     </row>
     <row outlineLevel="0" r="3570">
@@ -91604,7 +91604,7 @@
         <v>407</v>
       </c>
       <c r="G3570" s="0">
-        <v>4.75689574567555E-02</v>
+        <v>0.047</v>
       </c>
     </row>
     <row outlineLevel="0" r="3571">
@@ -91631,7 +91631,7 @@
         <v>7413</v>
       </c>
       <c r="G3571" s="0">
-        <v>0.8664095371669</v>
+        <v>0.866</v>
       </c>
     </row>
     <row outlineLevel="0" r="3572">
@@ -91658,7 +91658,7 @@
         <v>249</v>
       </c>
       <c r="G3572" s="0">
-        <v>2.91023842917251E-02</v>
+        <v>0.029</v>
       </c>
     </row>
     <row outlineLevel="0" r="3573">
@@ -91685,7 +91685,7 @@
         <v>894</v>
       </c>
       <c r="G3573" s="0">
-        <v>0.104488078541374</v>
+        <v>0.104</v>
       </c>
     </row>
     <row outlineLevel="0" r="3574">
@@ -91712,7 +91712,7 @@
         <v>3924</v>
       </c>
       <c r="G3574" s="0">
-        <v>0.458625525946704</v>
+        <v>0.458</v>
       </c>
     </row>
     <row outlineLevel="0" r="3575">
@@ -91739,7 +91739,7 @@
         <v>4625</v>
       </c>
       <c r="G3575" s="0">
-        <v>0.540556334735858</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="3576">
@@ -91766,7 +91766,3166 @@
         <v>7</v>
       </c>
       <c r="G3576" s="0">
-        <v>8.18139317438055E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3577">
+      <c r="A3577" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3577" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3577" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3577" s="0">
+        <v>415062</v>
+      </c>
+      <c r="E3577" s="0">
+        <v>0.594829624682745</v>
+      </c>
+      <c r="F3577" s="0">
+        <v>6386</v>
+      </c>
+      <c r="G3577" s="0">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3578">
+      <c r="A3578" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3578" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3578" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3578" s="0">
+        <v>87203</v>
+      </c>
+      <c r="E3578" s="0">
+        <v>0.124971516932915</v>
+      </c>
+      <c r="F3578" s="0">
+        <v>1535</v>
+      </c>
+      <c r="G3578" s="0">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3579">
+      <c r="A3579" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3579" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3579" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3579" s="0">
+        <v>5868</v>
+      </c>
+      <c r="E3579" s="0">
+        <v>8.40949120285246E-03</v>
+      </c>
+      <c r="F3579" s="0">
+        <v>41</v>
+      </c>
+      <c r="G3579" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3580">
+      <c r="A3580" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3580" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3580" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3580" s="0">
+        <v>881</v>
+      </c>
+      <c r="E3580" s="0">
+        <v>1.26257016866275E-03</v>
+      </c>
+      <c r="F3580" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3580" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3581">
+      <c r="A3581" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3581" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3581" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3581" s="0">
+        <v>467</v>
+      </c>
+      <c r="E3581" s="0">
+        <v>6.6926250711181E-04</v>
+      </c>
+      <c r="F3581" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3581" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3582">
+      <c r="A3582" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3582" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3582" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3582" s="0">
+        <v>57319</v>
+      </c>
+      <c r="E3582" s="0">
+        <v>8.21444489189332E-02</v>
+      </c>
+      <c r="F3582" s="0">
+        <v>293</v>
+      </c>
+      <c r="G3582" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3583">
+      <c r="A3583" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3583" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3583" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3583" s="0">
+        <v>130983</v>
+      </c>
+      <c r="E3583" s="0">
+        <v>0.18771308558678</v>
+      </c>
+      <c r="F3583" s="0">
+        <v>416</v>
+      </c>
+      <c r="G3583" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3584">
+      <c r="A3584" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3584" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3584" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3584" s="0">
+        <v>420966</v>
+      </c>
+      <c r="E3584" s="0">
+        <v>0.603290707856167</v>
+      </c>
+      <c r="F3584" s="0">
+        <v>7508</v>
+      </c>
+      <c r="G3584" s="0">
+        <v>0.864</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3585">
+      <c r="A3585" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3585" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3585" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3585" s="0">
+        <v>44185</v>
+      </c>
+      <c r="E3585" s="0">
+        <v>6.33219783227737E-02</v>
+      </c>
+      <c r="F3585" s="0">
+        <v>252</v>
+      </c>
+      <c r="G3585" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3586">
+      <c r="A3586" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3586" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3586" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3586" s="0">
+        <v>232632</v>
+      </c>
+      <c r="E3586" s="0">
+        <v>0.333387313821059</v>
+      </c>
+      <c r="F3586" s="0">
+        <v>924</v>
+      </c>
+      <c r="G3586" s="0">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3587">
+      <c r="A3587" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3587" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3587" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3587" s="0">
+        <v>370466</v>
+      </c>
+      <c r="E3587" s="0">
+        <v>0.530918638029301</v>
+      </c>
+      <c r="F3587" s="0">
+        <v>3983</v>
+      </c>
+      <c r="G3587" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3588">
+      <c r="A3588" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3588" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3588" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3588" s="0">
+        <v>321849</v>
+      </c>
+      <c r="E3588" s="0">
+        <v>0.461245114885287</v>
+      </c>
+      <c r="F3588" s="0">
+        <v>4692</v>
+      </c>
+      <c r="G3588" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3589">
+      <c r="A3589" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3589" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C3589" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3589" s="0">
+        <v>5468</v>
+      </c>
+      <c r="E3589" s="0">
+        <v>7.83624708541194E-03</v>
+      </c>
+      <c r="F3589" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3589" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3590">
+      <c r="A3590" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3590" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3590" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3590" s="0">
+        <v>419166</v>
+      </c>
+      <c r="E3590" s="0">
+        <v>0.59723273021043</v>
+      </c>
+      <c r="F3590" s="0">
+        <v>6477</v>
+      </c>
+      <c r="G3590" s="0">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3591">
+      <c r="A3591" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3591" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3591" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3591" s="0">
+        <v>88106</v>
+      </c>
+      <c r="E3591" s="0">
+        <v>0.125534482586661</v>
+      </c>
+      <c r="F3591" s="0">
+        <v>1558</v>
+      </c>
+      <c r="G3591" s="0">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3592">
+      <c r="A3592" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3592" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3592" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3592" s="0">
+        <v>5924</v>
+      </c>
+      <c r="E3592" s="0">
+        <v>8.44058605365557E-03</v>
+      </c>
+      <c r="F3592" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3592" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3593">
+      <c r="A3593" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3593" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3593" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3593" s="0">
+        <v>894</v>
+      </c>
+      <c r="E3593" s="0">
+        <v>1.27378189263472E-03</v>
+      </c>
+      <c r="F3593" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3593" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3594">
+      <c r="A3594" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3594" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3594" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3594" s="0">
+        <v>470</v>
+      </c>
+      <c r="E3594" s="0">
+        <v>6.69661621407515E-04</v>
+      </c>
+      <c r="F3594" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3594" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3595">
+      <c r="A3595" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3595" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3595" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3595" s="0">
+        <v>57627</v>
+      </c>
+      <c r="E3595" s="0">
+        <v>8.21076388443635E-02</v>
+      </c>
+      <c r="F3595" s="0">
+        <v>297</v>
+      </c>
+      <c r="G3595" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3596">
+      <c r="A3596" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3596" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3596" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3596" s="0">
+        <v>129660</v>
+      </c>
+      <c r="E3596" s="0">
+        <v>0.184741118790848</v>
+      </c>
+      <c r="F3596" s="0">
+        <v>390</v>
+      </c>
+      <c r="G3596" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3597">
+      <c r="A3597" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3597" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3597" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3597" s="0">
+        <v>427666</v>
+      </c>
+      <c r="E3597" s="0">
+        <v>0.609343631874183</v>
+      </c>
+      <c r="F3597" s="0">
+        <v>7644</v>
+      </c>
+      <c r="G3597" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3598">
+      <c r="A3598" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3598" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3598" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3598" s="0">
+        <v>44445</v>
+      </c>
+      <c r="E3598" s="0">
+        <v>6.33257675818234E-02</v>
+      </c>
+      <c r="F3598" s="0">
+        <v>252</v>
+      </c>
+      <c r="G3598" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3599">
+      <c r="A3599" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3599" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3599" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3599" s="0">
+        <v>229736</v>
+      </c>
+      <c r="E3599" s="0">
+        <v>0.327330600543993</v>
+      </c>
+      <c r="F3599" s="0">
+        <v>881</v>
+      </c>
+      <c r="G3599" s="0">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3600">
+      <c r="A3600" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3600" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3600" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3600" s="0">
+        <v>372584</v>
+      </c>
+      <c r="E3600" s="0">
+        <v>0.530862139469144</v>
+      </c>
+      <c r="F3600" s="0">
+        <v>4020</v>
+      </c>
+      <c r="G3600" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3601">
+      <c r="A3601" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3601" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3601" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3601" s="0">
+        <v>323791</v>
+      </c>
+      <c r="E3601" s="0">
+        <v>0.46134128948332</v>
+      </c>
+      <c r="F3601" s="0">
+        <v>4748</v>
+      </c>
+      <c r="G3601" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3602">
+      <c r="A3602" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3602" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C3602" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3602" s="0">
+        <v>5472</v>
+      </c>
+      <c r="E3602" s="0">
+        <v>0.007796571047536</v>
+      </c>
+      <c r="F3602" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3602" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3603">
+      <c r="A3603" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3603" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3603" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3603" s="0">
+        <v>421554</v>
+      </c>
+      <c r="E3603" s="0">
+        <v>0.597206874861874</v>
+      </c>
+      <c r="F3603" s="0">
+        <v>6508</v>
+      </c>
+      <c r="G3603" s="0">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3604">
+      <c r="A3604" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3604" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3604" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3604" s="0">
+        <v>88545</v>
+      </c>
+      <c r="E3604" s="0">
+        <v>0.125439878958911</v>
+      </c>
+      <c r="F3604" s="0">
+        <v>1564</v>
+      </c>
+      <c r="G3604" s="0">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3605">
+      <c r="A3605" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3605" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3605" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3605" s="0">
+        <v>5957</v>
+      </c>
+      <c r="E3605" s="0">
+        <v>8.4391592857669E-03</v>
+      </c>
+      <c r="F3605" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3605" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3606">
+      <c r="A3606" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3606" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3606" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3606" s="0">
+        <v>894</v>
+      </c>
+      <c r="E3606" s="0">
+        <v>1.26651139860259E-03</v>
+      </c>
+      <c r="F3606" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3606" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3607">
+      <c r="A3607" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3607" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3607" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3607" s="0">
+        <v>473</v>
+      </c>
+      <c r="E3607" s="0">
+        <v>6.70089364137611E-04</v>
+      </c>
+      <c r="F3607" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3607" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3608">
+      <c r="A3608" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3608" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3608" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3608" s="0">
+        <v>57817</v>
+      </c>
+      <c r="E3608" s="0">
+        <v>8.19081538400512E-02</v>
+      </c>
+      <c r="F3608" s="0">
+        <v>297</v>
+      </c>
+      <c r="G3608" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3609">
+      <c r="A3609" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3609" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3609" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3609" s="0">
+        <v>130636</v>
+      </c>
+      <c r="E3609" s="0">
+        <v>0.185069332290657</v>
+      </c>
+      <c r="F3609" s="0">
+        <v>395</v>
+      </c>
+      <c r="G3609" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3610">
+      <c r="A3610" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3610" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3610" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3610" s="0">
+        <v>429565</v>
+      </c>
+      <c r="E3610" s="0">
+        <v>0.60855589366971</v>
+      </c>
+      <c r="F3610" s="0">
+        <v>7674</v>
+      </c>
+      <c r="G3610" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3611">
+      <c r="A3611" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3611" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3611" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3611" s="0">
+        <v>44606</v>
+      </c>
+      <c r="E3611" s="0">
+        <v>6.31924020649519E-02</v>
+      </c>
+      <c r="F3611" s="0">
+        <v>253</v>
+      </c>
+      <c r="G3611" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3612">
+      <c r="A3612" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3612" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3612" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3612" s="0">
+        <v>231705</v>
+      </c>
+      <c r="E3612" s="0">
+        <v>0.328251704265338</v>
+      </c>
+      <c r="F3612" s="0">
+        <v>892</v>
+      </c>
+      <c r="G3612" s="0">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3613">
+      <c r="A3613" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3613" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3613" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3613" s="0">
+        <v>374716</v>
+      </c>
+      <c r="E3613" s="0">
+        <v>0.530852444338666</v>
+      </c>
+      <c r="F3613" s="0">
+        <v>4042</v>
+      </c>
+      <c r="G3613" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3614">
+      <c r="A3614" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3614" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3614" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3614" s="0">
+        <v>325637</v>
+      </c>
+      <c r="E3614" s="0">
+        <v>0.461323235242451</v>
+      </c>
+      <c r="F3614" s="0">
+        <v>4768</v>
+      </c>
+      <c r="G3614" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3615">
+      <c r="A3615" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3615" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C3615" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3615" s="0">
+        <v>5523</v>
+      </c>
+      <c r="E3615" s="0">
+        <v>7.82432041888377E-03</v>
+      </c>
+      <c r="F3615" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3615" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3616">
+      <c r="A3616" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3616" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3616" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3616" s="0">
+        <v>423101</v>
+      </c>
+      <c r="E3616" s="0">
+        <v>0.596995697859653</v>
+      </c>
+      <c r="F3616" s="0">
+        <v>6537</v>
+      </c>
+      <c r="G3616" s="0">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3617">
+      <c r="A3617" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3617" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3617" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3617" s="0">
+        <v>88903</v>
+      </c>
+      <c r="E3617" s="0">
+        <v>0.1254421722634</v>
+      </c>
+      <c r="F3617" s="0">
+        <v>1567</v>
+      </c>
+      <c r="G3617" s="0">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3618">
+      <c r="A3618" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3618" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3618" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3618" s="0">
+        <v>5995</v>
+      </c>
+      <c r="E3618" s="0">
+        <v>8.45894764765061E-03</v>
+      </c>
+      <c r="F3618" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3618" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3619">
+      <c r="A3619" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3619" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3619" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3619" s="0">
+        <v>898</v>
+      </c>
+      <c r="E3619" s="0">
+        <v>1.26707839659554E-03</v>
+      </c>
+      <c r="F3619" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3619" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3620">
+      <c r="A3620" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3620" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3620" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3620" s="0">
+        <v>477</v>
+      </c>
+      <c r="E3620" s="0">
+        <v>6.73047210663777E-04</v>
+      </c>
+      <c r="F3620" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3620" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3621">
+      <c r="A3621" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3621" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3621" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3621" s="0">
+        <v>57951</v>
+      </c>
+      <c r="E3621" s="0">
+        <v>8.17688865936615E-02</v>
+      </c>
+      <c r="F3621" s="0">
+        <v>300</v>
+      </c>
+      <c r="G3621" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3622">
+      <c r="A3622" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3622" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3622" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3622" s="0">
+        <v>131392</v>
+      </c>
+      <c r="E3622" s="0">
+        <v>0.185394170028375</v>
+      </c>
+      <c r="F3622" s="0">
+        <v>400</v>
+      </c>
+      <c r="G3622" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3623">
+      <c r="A3623" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3623" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3623" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3623" s="0">
+        <v>430781</v>
+      </c>
+      <c r="E3623" s="0">
+        <v>0.607832181251473</v>
+      </c>
+      <c r="F3623" s="0">
+        <v>7705</v>
+      </c>
+      <c r="G3623" s="0">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3624">
+      <c r="A3624" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3624" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3624" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3624" s="0">
+        <v>44688</v>
+      </c>
+      <c r="E3624" s="0">
+        <v>6.30547877361486E-02</v>
+      </c>
+      <c r="F3624" s="0">
+        <v>254</v>
+      </c>
+      <c r="G3624" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3625">
+      <c r="A3625" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3625" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3625" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3625" s="0">
+        <v>233248</v>
+      </c>
+      <c r="E3625" s="0">
+        <v>0.329113031012379</v>
+      </c>
+      <c r="F3625" s="0">
+        <v>900</v>
+      </c>
+      <c r="G3625" s="0">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3626">
+      <c r="A3626" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3626" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3626" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3626" s="0">
+        <v>376221</v>
+      </c>
+      <c r="E3626" s="0">
+        <v>0.530847997155423</v>
+      </c>
+      <c r="F3626" s="0">
+        <v>4062</v>
+      </c>
+      <c r="G3626" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3627">
+      <c r="A3627" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3627" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3627" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3627" s="0">
+        <v>326948</v>
+      </c>
+      <c r="E3627" s="0">
+        <v>0.461323772394341</v>
+      </c>
+      <c r="F3627" s="0">
+        <v>4788</v>
+      </c>
+      <c r="G3627" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3628">
+      <c r="A3628" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3628" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C3628" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3628" s="0">
+        <v>5548</v>
+      </c>
+      <c r="E3628" s="0">
+        <v>7.82823045023613E-03</v>
+      </c>
+      <c r="F3628" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3628" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3629">
+      <c r="A3629" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3629" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3629" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3629" s="0">
+        <v>423928</v>
+      </c>
+      <c r="E3629" s="0">
+        <v>0.596722815996577</v>
+      </c>
+      <c r="F3629" s="0">
+        <v>6636</v>
+      </c>
+      <c r="G3629" s="0">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3630">
+      <c r="A3630" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3630" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3630" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3630" s="0">
+        <v>89092</v>
+      </c>
+      <c r="E3630" s="0">
+        <v>0.125406269750446</v>
+      </c>
+      <c r="F3630" s="0">
+        <v>1574</v>
+      </c>
+      <c r="G3630" s="0">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3631">
+      <c r="A3631" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3631" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3631" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3631" s="0">
+        <v>6025</v>
+      </c>
+      <c r="E3631" s="0">
+        <v>8.48081505911234E-03</v>
+      </c>
+      <c r="F3631" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3631" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3632">
+      <c r="A3632" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3632" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3632" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3632" s="0">
+        <v>899</v>
+      </c>
+      <c r="E3632" s="0">
+        <v>1.2654361391107E-03</v>
+      </c>
+      <c r="F3632" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3632" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3633">
+      <c r="A3633" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3633" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3633" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3633" s="0">
+        <v>478</v>
+      </c>
+      <c r="E3633" s="0">
+        <v>6.72834788092232E-04</v>
+      </c>
+      <c r="F3633" s="0">
+        <v>4</v>
+      </c>
+      <c r="G3633" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3634">
+      <c r="A3634" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3634" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3634" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3634" s="0">
+        <v>58013</v>
+      </c>
+      <c r="E3634" s="0">
+        <v>8.16593400870181E-02</v>
+      </c>
+      <c r="F3634" s="0">
+        <v>301</v>
+      </c>
+      <c r="G3634" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3635">
+      <c r="A3635" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3635" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3635" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3635" s="0">
+        <v>131992</v>
+      </c>
+      <c r="E3635" s="0">
+        <v>0.185792488179644</v>
+      </c>
+      <c r="F3635" s="0">
+        <v>404</v>
+      </c>
+      <c r="G3635" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3636">
+      <c r="A3636" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3636" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3636" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3636" s="0">
+        <v>431513</v>
+      </c>
+      <c r="E3636" s="0">
+        <v>0.607399493544024</v>
+      </c>
+      <c r="F3636" s="0">
+        <v>7808</v>
+      </c>
+      <c r="G3636" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3637">
+      <c r="A3637" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3637" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3637" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3637" s="0">
+        <v>44742</v>
+      </c>
+      <c r="E3637" s="0">
+        <v>6.29790252904239E-02</v>
+      </c>
+      <c r="F3637" s="0">
+        <v>255</v>
+      </c>
+      <c r="G3637" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3638">
+      <c r="A3638" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3638" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3638" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3638" s="0">
+        <v>234172</v>
+      </c>
+      <c r="E3638" s="0">
+        <v>0.329621481165553</v>
+      </c>
+      <c r="F3638" s="0">
+        <v>907</v>
+      </c>
+      <c r="G3638" s="0">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3639">
+      <c r="A3639" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3639" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3639" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3639" s="0">
+        <v>377123</v>
+      </c>
+      <c r="E3639" s="0">
+        <v>0.530839903325746</v>
+      </c>
+      <c r="F3639" s="0">
+        <v>4112</v>
+      </c>
+      <c r="G3639" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3640">
+      <c r="A3640" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3640" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3640" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3640" s="0">
+        <v>327747</v>
+      </c>
+      <c r="E3640" s="0">
+        <v>0.461338040361642</v>
+      </c>
+      <c r="F3640" s="0">
+        <v>4848</v>
+      </c>
+      <c r="G3640" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3641">
+      <c r="A3641" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3641" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C3641" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3641" s="0">
+        <v>5557</v>
+      </c>
+      <c r="E3641" s="0">
+        <v>7.82205631261199E-03</v>
+      </c>
+      <c r="F3641" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3641" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3642">
+      <c r="A3642" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3642" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3642" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3642" s="0">
+        <v>425336</v>
+      </c>
+      <c r="E3642" s="0">
+        <v>0.597041574607738</v>
+      </c>
+      <c r="F3642" s="0">
+        <v>6775</v>
+      </c>
+      <c r="G3642" s="0">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3643">
+      <c r="A3643" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3643" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3643" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3643" s="0">
+        <v>89324</v>
+      </c>
+      <c r="E3643" s="0">
+        <v>0.125383559374851</v>
+      </c>
+      <c r="F3643" s="0">
+        <v>1609</v>
+      </c>
+      <c r="G3643" s="0">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3644">
+      <c r="A3644" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3644" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3644" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3644" s="0">
+        <v>6053</v>
+      </c>
+      <c r="E3644" s="0">
+        <v>8.49655954610152E-03</v>
+      </c>
+      <c r="F3644" s="0">
+        <v>45</v>
+      </c>
+      <c r="G3644" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3645">
+      <c r="A3645" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3645" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3645" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3645" s="0">
+        <v>899</v>
+      </c>
+      <c r="E3645" s="0">
+        <v>1.26192087096403E-03</v>
+      </c>
+      <c r="F3645" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3645" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3646">
+      <c r="A3646" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3646" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3646" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3646" s="0">
+        <v>481</v>
+      </c>
+      <c r="E3646" s="0">
+        <v>6.75176795254391E-04</v>
+      </c>
+      <c r="F3646" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3646" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3647">
+      <c r="A3647" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3647" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3647" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3647" s="0">
+        <v>58063</v>
+      </c>
+      <c r="E3647" s="0">
+        <v>8.15026824591595E-02</v>
+      </c>
+      <c r="F3647" s="0">
+        <v>300</v>
+      </c>
+      <c r="G3647" s="0">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3648">
+      <c r="A3648" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3648" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3648" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3648" s="0">
+        <v>132250</v>
+      </c>
+      <c r="E3648" s="0">
+        <v>0.185638526345932</v>
+      </c>
+      <c r="F3648" s="0">
+        <v>419</v>
+      </c>
+      <c r="G3648" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3649">
+      <c r="A3649" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3649" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3649" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3649" s="0">
+        <v>432929</v>
+      </c>
+      <c r="E3649" s="0">
+        <v>0.607699822853822</v>
+      </c>
+      <c r="F3649" s="0">
+        <v>7965</v>
+      </c>
+      <c r="G3649" s="0">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3650">
+      <c r="A3650" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3650" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3650" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3650" s="0">
+        <v>44814</v>
+      </c>
+      <c r="E3650" s="0">
+        <v>6.29051411695017E-02</v>
+      </c>
+      <c r="F3650" s="0">
+        <v>258</v>
+      </c>
+      <c r="G3650" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3651">
+      <c r="A3651" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3651" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3651" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3651" s="0">
+        <v>234663</v>
+      </c>
+      <c r="E3651" s="0">
+        <v>0.329395035976676</v>
+      </c>
+      <c r="F3651" s="0">
+        <v>939</v>
+      </c>
+      <c r="G3651" s="0">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3652">
+      <c r="A3652" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3652" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3652" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3652" s="0">
+        <v>378217</v>
+      </c>
+      <c r="E3652" s="0">
+        <v>0.530900918858067</v>
+      </c>
+      <c r="F3652" s="0">
+        <v>4205</v>
+      </c>
+      <c r="G3652" s="0">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3653">
+      <c r="A3653" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3653" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3653" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3653" s="0">
+        <v>328616</v>
+      </c>
+      <c r="E3653" s="0">
+        <v>0.461276294697125</v>
+      </c>
+      <c r="F3653" s="0">
+        <v>4947</v>
+      </c>
+      <c r="G3653" s="0">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3654">
+      <c r="A3654" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3654" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C3654" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3654" s="0">
+        <v>5573</v>
+      </c>
+      <c r="E3654" s="0">
+        <v>7.82278644480816E-03</v>
+      </c>
+      <c r="F3654" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3654" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3655">
+      <c r="A3655" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3655" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3655" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3655" s="0">
+        <v>428745</v>
+      </c>
+      <c r="E3655" s="0">
+        <v>0.598968156176394</v>
+      </c>
+      <c r="F3655" s="0">
+        <v>6906</v>
+      </c>
+      <c r="G3655" s="0">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3656">
+      <c r="A3656" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3656" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3656" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3656" s="0">
+        <v>90099</v>
+      </c>
+      <c r="E3656" s="0">
+        <v>0.125870696808912</v>
+      </c>
+      <c r="F3656" s="0">
+        <v>1634</v>
+      </c>
+      <c r="G3656" s="0">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3657">
+      <c r="A3657" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3657" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3657" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3657" s="0">
+        <v>6104</v>
+      </c>
+      <c r="E3657" s="0">
+        <v>8.52745017504743E-03</v>
+      </c>
+      <c r="F3657" s="0">
+        <v>46</v>
+      </c>
+      <c r="G3657" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3658">
+      <c r="A3658" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3658" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3658" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3658" s="0">
+        <v>908</v>
+      </c>
+      <c r="E3658" s="0">
+        <v>1.26850012433536E-03</v>
+      </c>
+      <c r="F3658" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3658" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3659">
+      <c r="A3659" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3659" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3659" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3659" s="0">
+        <v>482</v>
+      </c>
+      <c r="E3659" s="0">
+        <v>6.73366806089918E-04</v>
+      </c>
+      <c r="F3659" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3659" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3660">
+      <c r="A3660" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3660" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3660" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3660" s="0">
+        <v>58243</v>
+      </c>
+      <c r="E3660" s="0">
+        <v>8.13670184379567E-02</v>
+      </c>
+      <c r="F3660" s="0">
+        <v>303</v>
+      </c>
+      <c r="G3660" s="0">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3661">
+      <c r="A3661" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3661" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3661" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3661" s="0">
+        <v>131225</v>
+      </c>
+      <c r="E3661" s="0">
+        <v>0.183324811471265</v>
+      </c>
+      <c r="F3661" s="0">
+        <v>413</v>
+      </c>
+      <c r="G3661" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3662">
+      <c r="A3662" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3662" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3662" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3662" s="0">
+        <v>438365</v>
+      </c>
+      <c r="E3662" s="0">
+        <v>0.612407551766819</v>
+      </c>
+      <c r="F3662" s="0">
+        <v>8136</v>
+      </c>
+      <c r="G3662" s="0">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3663">
+      <c r="A3663" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3663" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3663" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3663" s="0">
+        <v>45016</v>
+      </c>
+      <c r="E3663" s="0">
+        <v>6.28885480144061E-02</v>
+      </c>
+      <c r="F3663" s="0">
+        <v>262</v>
+      </c>
+      <c r="G3663" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3664">
+      <c r="A3664" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3664" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3664" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3664" s="0">
+        <v>232425</v>
+      </c>
+      <c r="E3664" s="0">
+        <v>0.324703900218774</v>
+      </c>
+      <c r="F3664" s="0">
+        <v>918</v>
+      </c>
+      <c r="G3664" s="0">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3665">
+      <c r="A3665" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3665" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3665" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3665" s="0">
+        <v>379966</v>
+      </c>
+      <c r="E3665" s="0">
+        <v>0.530822597184153</v>
+      </c>
+      <c r="F3665" s="0">
+        <v>4289</v>
+      </c>
+      <c r="G3665" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3666">
+      <c r="A3666" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3666" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3666" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3666" s="0">
+        <v>330249</v>
+      </c>
+      <c r="E3666" s="0">
+        <v>0.461366627270517</v>
+      </c>
+      <c r="F3666" s="0">
+        <v>5015</v>
+      </c>
+      <c r="G3666" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3667">
+      <c r="A3667" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3667" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C3667" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3667" s="0">
+        <v>5591</v>
+      </c>
+      <c r="E3667" s="0">
+        <v>7.81077554532932E-03</v>
+      </c>
+      <c r="F3667" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3667" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3668">
+      <c r="A3668" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3668" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3668" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3668" s="0">
+        <v>431382</v>
+      </c>
+      <c r="E3668" s="0">
+        <v>0.601159726470666</v>
+      </c>
+      <c r="F3668" s="0">
+        <v>6993</v>
+      </c>
+      <c r="G3668" s="0">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3669">
+      <c r="A3669" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3669" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3669" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3669" s="0">
+        <v>90734</v>
+      </c>
+      <c r="E3669" s="0">
+        <v>0.126443909624392</v>
+      </c>
+      <c r="F3669" s="0">
+        <v>1645</v>
+      </c>
+      <c r="G3669" s="0">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3670">
+      <c r="A3670" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3670" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3670" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3670" s="0">
+        <v>6120</v>
+      </c>
+      <c r="E3670" s="0">
+        <v>0.008528630137559</v>
+      </c>
+      <c r="F3670" s="0">
+        <v>47</v>
+      </c>
+      <c r="G3670" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3671">
+      <c r="A3671" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3671" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3671" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3671" s="0">
+        <v>916</v>
+      </c>
+      <c r="E3671" s="0">
+        <v>1.27650738660197E-03</v>
+      </c>
+      <c r="F3671" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3671" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3672">
+      <c r="A3672" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3672" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3672" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3672" s="0">
+        <v>489</v>
+      </c>
+      <c r="E3672" s="0">
+        <v>6.81454270795155E-04</v>
+      </c>
+      <c r="F3672" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3672" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3673">
+      <c r="A3673" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3673" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3673" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3673" s="0">
+        <v>58444</v>
+      </c>
+      <c r="E3673" s="0">
+        <v>8.14456306796566E-02</v>
+      </c>
+      <c r="F3673" s="0">
+        <v>310</v>
+      </c>
+      <c r="G3673" s="0">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3674">
+      <c r="A3674" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3674" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3674" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3674" s="0">
+        <v>129498</v>
+      </c>
+      <c r="E3674" s="0">
+        <v>0.180464141430329</v>
+      </c>
+      <c r="F3674" s="0">
+        <v>408</v>
+      </c>
+      <c r="G3674" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3675">
+      <c r="A3675" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3675" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3675" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3675" s="0">
+        <v>443585</v>
+      </c>
+      <c r="E3675" s="0">
+        <v>0.618165424766194</v>
+      </c>
+      <c r="F3675" s="0">
+        <v>8248</v>
+      </c>
+      <c r="G3675" s="0">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3676">
+      <c r="A3676" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3676" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3676" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3676" s="0">
+        <v>45187</v>
+      </c>
+      <c r="E3676" s="0">
+        <v>6.29711127493266E-02</v>
+      </c>
+      <c r="F3676" s="0">
+        <v>268</v>
+      </c>
+      <c r="G3676" s="0">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3677">
+      <c r="A3677" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3677" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3677" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3677" s="0">
+        <v>228811</v>
+      </c>
+      <c r="E3677" s="0">
+        <v>0.318863462484479</v>
+      </c>
+      <c r="F3677" s="0">
+        <v>901</v>
+      </c>
+      <c r="G3677" s="0">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3678">
+      <c r="A3678" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3678" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3678" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3678" s="0">
+        <v>380962</v>
+      </c>
+      <c r="E3678" s="0">
+        <v>0.53089607752692</v>
+      </c>
+      <c r="F3678" s="0">
+        <v>4335</v>
+      </c>
+      <c r="G3678" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3679">
+      <c r="A3679" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3679" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3679" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3679" s="0">
+        <v>331078</v>
+      </c>
+      <c r="E3679" s="0">
+        <v>0.461379380503719</v>
+      </c>
+      <c r="F3679" s="0">
+        <v>5068</v>
+      </c>
+      <c r="G3679" s="0">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3680">
+      <c r="A3680" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3680" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C3680" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3680" s="0">
+        <v>5543</v>
+      </c>
+      <c r="E3680" s="0">
+        <v>7.72454196936104E-03</v>
+      </c>
+      <c r="F3680" s="0">
+        <v>14</v>
+      </c>
+      <c r="G3680" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3681">
+      <c r="A3681" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B3681" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3681" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3681" s="0">
+        <v>434613</v>
+      </c>
+      <c r="E3681" s="0">
+        <v>0.601547977760277</v>
+      </c>
+      <c r="F3681" s="0">
+        <v>7024</v>
+      </c>
+      <c r="G3681" s="0">
+        <v>0.742416235070289</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3682">
+      <c r="A3682" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B3682" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3682" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3682" s="0">
+        <v>91212</v>
+      </c>
+      <c r="E3682" s="0">
+        <v>0.126246555320412</v>
+      </c>
+      <c r="F3682" s="0">
+        <v>1649</v>
+      </c>
+      <c r="G3682" s="0">
+        <v>0.174294472043124</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3683">
+      <c r="A3683" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B3683" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3683" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3683" s="0">
+        <v>58668</v>
+      </c>
+      <c r="E3683" s="0">
+        <v>8.12023956007756E-02</v>
+      </c>
+      <c r="F3683" s="0">
+        <v>314</v>
+      </c>
+      <c r="G3683" s="0">
+        <v>3.31888806680055E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3684">
+      <c r="A3684" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B3684" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3684" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3684" s="0">
+        <v>6162</v>
+      </c>
+      <c r="E3684" s="0">
+        <v>8.52882596461409E-03</v>
+      </c>
+      <c r="F3684" s="0">
+        <v>48</v>
+      </c>
+      <c r="G3684" s="0">
+        <v>5.07345946517281E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3685">
+      <c r="A3685" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B3685" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3685" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3685" s="0">
+        <v>919</v>
+      </c>
+      <c r="E3685" s="0">
+        <v>1.27198816317435E-03</v>
+      </c>
+      <c r="F3685" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3685" s="0">
+        <v>9.51273649719903E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3686">
+      <c r="A3686" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B3686" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3686" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3686" s="0">
+        <v>495</v>
+      </c>
+      <c r="E3686" s="0">
+        <v>6.85129641753323E-04</v>
+      </c>
+      <c r="F3686" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3686" s="0">
+        <v>5.28485360955502E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3687">
+      <c r="A3687" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3687" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3687" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D3687" s="0">
+        <v>130422</v>
+      </c>
+      <c r="E3687" s="0">
+        <v>0.180517127548994</v>
+      </c>
+      <c r="F3687" s="0">
+        <v>412</v>
+      </c>
+      <c r="G3687" s="0">
+        <v>4.35471937427333E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3688">
+      <c r="A3688" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B3688" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3688" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3688" s="0">
+        <v>446579</v>
+      </c>
+      <c r="E3688" s="0">
+        <v>0.618110121786984</v>
+      </c>
+      <c r="F3688" s="0">
+        <v>8278</v>
+      </c>
+      <c r="G3688" s="0">
+        <v>0.874960363597928</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3689">
+      <c r="A3689" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B3689" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3689" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3689" s="0">
+        <v>45367</v>
+      </c>
+      <c r="E3689" s="0">
+        <v>6.27924776917636E-02</v>
+      </c>
+      <c r="F3689" s="0">
+        <v>268</v>
+      </c>
+      <c r="G3689" s="0">
+        <v>2.83268153472149E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3690">
+      <c r="A3690" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3690" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3690" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D3690" s="0">
+        <v>230545</v>
+      </c>
+      <c r="E3690" s="0">
+        <v>0.319097400521252</v>
+      </c>
+      <c r="F3690" s="0">
+        <v>915</v>
+      </c>
+      <c r="G3690" s="0">
+        <v>9.67128210548568E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3691">
+      <c r="A3691" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B3691" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3691" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3691" s="0">
+        <v>383491</v>
+      </c>
+      <c r="E3691" s="0">
+        <v>0.530790002920452</v>
+      </c>
+      <c r="F3691" s="0">
+        <v>4355</v>
+      </c>
+      <c r="G3691" s="0">
+        <v>0.460310749392242</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3692">
+      <c r="A3692" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B3692" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3692" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3692" s="0">
+        <v>333437</v>
+      </c>
+      <c r="E3692" s="0">
+        <v>0.46151024718647</v>
+      </c>
+      <c r="F3692" s="0">
+        <v>5092</v>
+      </c>
+      <c r="G3692" s="0">
+        <v>0.538209491597083</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3693">
+      <c r="A3693" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B3693" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C3693" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D3693" s="0">
+        <v>5563</v>
+      </c>
+      <c r="E3693" s="0">
+        <v>7.69974989307825E-03</v>
+      </c>
+      <c r="F3693" s="0">
+        <v>14</v>
+      </c>
+      <c r="G3693" s="0">
+        <v>1.4797590106754E-03</v>
       </c>
     </row>
   </sheetData>
@@ -92197,13 +95356,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2680</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2680</Url>
-      <Description>HJYU5V3E37X6-122305290-2680</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -92218,24 +95370,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-2844</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-2844</Url>
+      <Description>HJYU5V3E37X6-122305290-2844</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B35873-8A78-478C-9CD1-8F49A9B8EF02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A961134-A9D5-46D8-8823-24423C120334}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4816E90F-114B-47CA-A4C6-573CCAA7AE62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5EB737-0FFA-4AB7-A6CE-70615EA40A5E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{831587E6-2918-49F9-A9BD-C86603672DEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B49CCEC-6618-4753-99B1-86AB4687CD78}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB06FDCC-0C8A-4F88-AD02-4708B78AD456}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC877D0C-975D-477A-BD29-4D10ED2D6AFD}"/>
 </file>